--- a/admin/Schedule of Activity.xlsx
+++ b/admin/Schedule of Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b94ccae29788f3bc/Bristol/Final Year Project/w5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3C5260-C158-4E43-B3DE-3D8502DBDF8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3DD8E68-2411-4360-B70B-45F1B729DD49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" firstSheet="1" activeTab="2" xr2:uid="{BC5E3FEA-07E1-42A4-AA4A-5DAF8469F5C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" firstSheet="2" xr2:uid="{BC5E3FEA-07E1-42A4-AA4A-5DAF8469F5C2}"/>
   </bookViews>
   <sheets>
     <sheet name="SoA" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Schedule of Activity</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>Find way to convert from PDF to CSV</t>
   </si>
   <si>
     <t>Experiment with data and seed words to find other relevant words</t>
@@ -332,8 +335,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{51475DEF-5CED-44C6-A24E-1EF5C1DA1960}" name="Table3" displayName="Table3" ref="A3:J11" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A3:J11" xr:uid="{A46AF164-01EF-4DE2-994A-F7692401048F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{51475DEF-5CED-44C6-A24E-1EF5C1DA1960}" name="Table3" displayName="Table3" ref="A3:J12" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A3:J12" xr:uid="{A46AF164-01EF-4DE2-994A-F7692401048F}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{15FE9B46-DF0B-41A3-8892-279C946D66AC}" name="Start"/>
     <tableColumn id="2" xr3:uid="{F30C1D4E-1D61-44C1-A504-44C10DCB9B20}" name="End"/>
@@ -651,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41896FE7-47FE-4192-B182-9F96C4005BA7}">
-  <dimension ref="A1:P999"/>
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0" xr3:uid="{D07F2CD1-9907-54B6-B695-3108A5814274}">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0" xr3:uid="{D07F2CD1-9907-54B6-B695-3108A5814274}">
+      <selection activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -937,7 +940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="15">
       <c r="A8" s="1">
         <v>43409</v>
       </c>
@@ -981,12 +984,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="15">
       <c r="A9" s="1">
+        <v>43409</v>
+      </c>
+      <c r="B9" s="1">
         <v>43412</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43417</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -997,12 +1000,15 @@
       <c r="E9" t="s">
         <v>26</v>
       </c>
+      <c r="F9" s="1">
+        <v>43409</v>
+      </c>
       <c r="H9" s="7" t="str">
-        <f>IF(NOT(Table3[End_]=""),L9,"")</f>
+        <f>IF(NOT(Table3[End_]=""),L12,"")</f>
         <v/>
       </c>
       <c r="I9" s="7" t="str">
-        <f>IF(NOT(Table3[End_]=""),M9,"")</f>
+        <f>IF(NOT(Table3[End_]=""),M12,"")</f>
         <v/>
       </c>
       <c r="L9" s="5" t="str">
@@ -1022,31 +1028,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="15">
       <c r="A10" s="1">
-        <v>43409</v>
+        <v>43412</v>
       </c>
       <c r="B10" s="1">
-        <v>43430</v>
+        <v>43417</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1">
-        <v>43409</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f>IF(NOT(Table3[End_]=""),L10,"")</f>
+        <f>IF(NOT(Table3[End_]=""),L9,"")</f>
         <v/>
       </c>
       <c r="I10" s="7" t="str">
-        <f>IF(NOT(Table3[End_]=""),M10,"")</f>
+        <f>IF(NOT(Table3[End_]=""),M9,"")</f>
         <v/>
       </c>
       <c r="L10" s="5" t="str">
@@ -1066,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="15">
       <c r="A11" s="1">
         <v>43409</v>
       </c>
@@ -1074,23 +1077,23 @@
         <v>43430</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1">
         <v>43409</v>
       </c>
       <c r="H11" s="7" t="str">
-        <f>IF(NOT(Table3[End_]=""),L11,"")</f>
+        <f>IF(NOT(Table3[End_]=""),L10,"")</f>
         <v/>
       </c>
       <c r="I11" s="7" t="str">
-        <f>IF(NOT(Table3[End_]=""),M11,"")</f>
+        <f>IF(NOT(Table3[End_]=""),M10,"")</f>
         <v/>
       </c>
       <c r="L11" s="5" t="str">
@@ -1110,25 +1113,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="L12" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M12" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N12" s="5" t="e">
-        <f>IF(Table3[End]-Table3[Start]&gt;Table3[End_]-Table3[Start_],0,(Table3[End_]-Table3[Start_])-(Table3[End]-Table3[Start]))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O12" s="5" t="e">
-        <f>IF(Table3[End]&gt;Table3[End_],0,Table3[End_]-Table3[End])</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+    <row r="12" spans="1:16" ht="15">
+      <c r="A12" s="1">
+        <v>43409</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43430</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1">
+        <v>43409</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f>IF(NOT(Table3[End_]=""),L11,"")</f>
+        <v/>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f>IF(NOT(Table3[End_]=""),M11,"")</f>
+        <v/>
+      </c>
+      <c r="L12" s="5" t="str">
+        <f>IF(N12=0,"YES",N12)</f>
+        <v>YES</v>
+      </c>
+      <c r="M12" s="5" t="str">
+        <f>IF(O12=0,"YES",O12)</f>
+        <v>YES</v>
+      </c>
+      <c r="N12" s="5">
+        <f>IF(Table3[End]-Table3[Start]&gt;Table3[End_]-Table3[Start_],0,(Table3[End_]-Table3[Start_])-(Table3[End]-Table3[Start]))</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <f>IF(Table3[End]&gt;Table3[End_],0,Table3[End_]-Table3[End])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15">
       <c r="L13" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1146,7 +1175,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="15">
       <c r="L14" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1164,7 +1193,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="15">
       <c r="L15" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1182,7 +1211,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="15">
       <c r="L16" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1200,7 +1229,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="12:15">
+    <row r="17" spans="12:15" ht="15">
       <c r="L17" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1218,7 +1247,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="12:15">
+    <row r="18" spans="12:15" ht="15">
       <c r="L18" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1236,7 +1265,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="12:15">
+    <row r="19" spans="12:15" ht="15">
       <c r="L19" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1254,7 +1283,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="12:15">
+    <row r="20" spans="12:15" ht="15">
       <c r="L20" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1272,7 +1301,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="12:15">
+    <row r="21" spans="12:15" ht="15">
       <c r="L21" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1290,7 +1319,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="12:15">
+    <row r="22" spans="12:15" ht="15">
       <c r="L22" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1308,7 +1337,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="12:15">
+    <row r="23" spans="12:15" ht="15">
       <c r="L23" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1326,7 +1355,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="12:15">
+    <row r="24" spans="12:15" ht="15">
       <c r="L24" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1344,7 +1373,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="12:15">
+    <row r="25" spans="12:15" ht="15">
       <c r="L25" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1362,7 +1391,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="12:15">
+    <row r="26" spans="12:15" ht="15">
       <c r="L26" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1380,7 +1409,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="12:15">
+    <row r="27" spans="12:15" ht="15">
       <c r="L27" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1398,7 +1427,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="12:15">
+    <row r="28" spans="12:15" ht="15">
       <c r="L28" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1416,7 +1445,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="12:15">
+    <row r="29" spans="12:15" ht="15">
       <c r="L29" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1434,7 +1463,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="12:15">
+    <row r="30" spans="12:15" ht="15">
       <c r="L30" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1452,7 +1481,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="12:15">
+    <row r="31" spans="12:15" ht="15">
       <c r="L31" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1470,7 +1499,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="12:15">
+    <row r="32" spans="12:15" ht="15">
       <c r="L32" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1488,7 +1517,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="12:15">
+    <row r="33" spans="12:15" ht="15">
       <c r="L33" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1506,7 +1535,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="12:15">
+    <row r="34" spans="12:15" ht="15">
       <c r="L34" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1524,7 +1553,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="12:15">
+    <row r="35" spans="12:15" ht="15">
       <c r="L35" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1542,7 +1571,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="12:15">
+    <row r="36" spans="12:15" ht="15">
       <c r="L36" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1560,7 +1589,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="12:15">
+    <row r="37" spans="12:15" ht="15">
       <c r="L37" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1578,7 +1607,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="12:15">
+    <row r="38" spans="12:15" ht="15">
       <c r="L38" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1596,7 +1625,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="12:15">
+    <row r="39" spans="12:15" ht="15">
       <c r="L39" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1614,7 +1643,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="12:15">
+    <row r="40" spans="12:15" ht="15">
       <c r="L40" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1632,7 +1661,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="12:15">
+    <row r="41" spans="12:15" ht="15">
       <c r="L41" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1650,7 +1679,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="12:15">
+    <row r="42" spans="12:15" ht="15">
       <c r="L42" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1668,7 +1697,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="12:15">
+    <row r="43" spans="12:15" ht="15">
       <c r="L43" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1686,7 +1715,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="12:15">
+    <row r="44" spans="12:15" ht="15">
       <c r="L44" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1704,7 +1733,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="12:15">
+    <row r="45" spans="12:15" ht="15">
       <c r="L45" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1722,7 +1751,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="12:15">
+    <row r="46" spans="12:15" ht="15">
       <c r="L46" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1740,7 +1769,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="12:15">
+    <row r="47" spans="12:15" ht="15">
       <c r="L47" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1758,7 +1787,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="12:15">
+    <row r="48" spans="12:15" ht="15">
       <c r="L48" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1776,7 +1805,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="12:15">
+    <row r="49" spans="12:15" ht="15">
       <c r="L49" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1794,7 +1823,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="12:15">
+    <row r="50" spans="12:15" ht="15">
       <c r="L50" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1812,7 +1841,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="12:15">
+    <row r="51" spans="12:15" ht="15">
       <c r="L51" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1830,7 +1859,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" ht="15">
       <c r="L52" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1848,7 +1877,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" ht="15">
       <c r="L53" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1866,7 +1895,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="12:15">
+    <row r="54" spans="12:15" ht="15">
       <c r="L54" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1884,7 +1913,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="12:15">
+    <row r="55" spans="12:15" ht="15">
       <c r="L55" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1902,7 +1931,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="56" spans="12:15">
+    <row r="56" spans="12:15" ht="15">
       <c r="L56" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1920,7 +1949,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="57" spans="12:15">
+    <row r="57" spans="12:15" ht="15">
       <c r="L57" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1938,7 +1967,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="12:15">
+    <row r="58" spans="12:15" ht="15">
       <c r="L58" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1956,7 +1985,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="12:15">
+    <row r="59" spans="12:15" ht="15">
       <c r="L59" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1974,7 +2003,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" spans="12:15">
+    <row r="60" spans="12:15" ht="15">
       <c r="L60" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -1992,7 +2021,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="61" spans="12:15">
+    <row r="61" spans="12:15" ht="15">
       <c r="L61" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -2010,7 +2039,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="12:15">
+    <row r="62" spans="12:15" ht="15">
       <c r="L62" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -2028,7 +2057,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="12:15">
+    <row r="63" spans="12:15" ht="15">
       <c r="L63" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -2046,7 +2075,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="12:15">
+    <row r="64" spans="12:15" ht="15">
       <c r="L64" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -2064,7 +2093,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="12:15">
+    <row r="65" spans="12:15" ht="15">
       <c r="L65" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -2082,7 +2111,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="12:15">
+    <row r="66" spans="12:15" ht="15">
       <c r="L66" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -2100,7 +2129,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="12:15">
+    <row r="67" spans="12:15" ht="15">
       <c r="L67" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -2118,7 +2147,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="68" spans="12:15">
+    <row r="68" spans="12:15" ht="15">
       <c r="L68" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -2136,7 +2165,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="12:15">
+    <row r="69" spans="12:15" ht="15">
       <c r="L69" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -2154,7 +2183,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="12:15">
+    <row r="70" spans="12:15" ht="15">
       <c r="L70" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -2172,7 +2201,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="12:15">
+    <row r="71" spans="12:15" ht="15">
       <c r="L71" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -2190,7 +2219,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="12:15">
+    <row r="72" spans="12:15" ht="15">
       <c r="L72" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
@@ -2208,7 +2237,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="12:15">
+    <row r="73" spans="12:15" ht="15">
       <c r="L73" s="5" t="e">
         <f t="shared" ref="L73:L136" si="4">IF(N73=0,"YES",N73)</f>
         <v>#VALUE!</v>
@@ -2226,7 +2255,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="12:15">
+    <row r="74" spans="12:15" ht="15">
       <c r="L74" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2244,7 +2273,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="12:15">
+    <row r="75" spans="12:15" ht="15">
       <c r="L75" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2262,7 +2291,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="76" spans="12:15">
+    <row r="76" spans="12:15" ht="15">
       <c r="L76" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2280,7 +2309,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="77" spans="12:15">
+    <row r="77" spans="12:15" ht="15">
       <c r="L77" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2298,7 +2327,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="12:15">
+    <row r="78" spans="12:15" ht="15">
       <c r="L78" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2316,7 +2345,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="79" spans="12:15">
+    <row r="79" spans="12:15" ht="15">
       <c r="L79" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2334,7 +2363,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="80" spans="12:15">
+    <row r="80" spans="12:15" ht="15">
       <c r="L80" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2352,7 +2381,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="81" spans="12:15">
+    <row r="81" spans="12:15" ht="15">
       <c r="L81" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2370,7 +2399,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="82" spans="12:15">
+    <row r="82" spans="12:15" ht="15">
       <c r="L82" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2388,7 +2417,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="83" spans="12:15">
+    <row r="83" spans="12:15" ht="15">
       <c r="L83" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2406,7 +2435,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="84" spans="12:15">
+    <row r="84" spans="12:15" ht="15">
       <c r="L84" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2424,7 +2453,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="12:15">
+    <row r="85" spans="12:15" ht="15">
       <c r="L85" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2442,7 +2471,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="86" spans="12:15">
+    <row r="86" spans="12:15" ht="15">
       <c r="L86" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2460,7 +2489,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="87" spans="12:15">
+    <row r="87" spans="12:15" ht="15">
       <c r="L87" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2478,7 +2507,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="12:15">
+    <row r="88" spans="12:15" ht="15">
       <c r="L88" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2496,7 +2525,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="12:15">
+    <row r="89" spans="12:15" ht="15">
       <c r="L89" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2514,7 +2543,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="12:15">
+    <row r="90" spans="12:15" ht="15">
       <c r="L90" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2532,7 +2561,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="12:15">
+    <row r="91" spans="12:15" ht="15">
       <c r="L91" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2550,7 +2579,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="12:15">
+    <row r="92" spans="12:15" ht="15">
       <c r="L92" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2568,7 +2597,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="12:15">
+    <row r="93" spans="12:15" ht="15">
       <c r="L93" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2586,7 +2615,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="94" spans="12:15">
+    <row r="94" spans="12:15" ht="15">
       <c r="L94" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2604,7 +2633,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="12:15">
+    <row r="95" spans="12:15" ht="15">
       <c r="L95" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2622,7 +2651,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="12:15">
+    <row r="96" spans="12:15" ht="15">
       <c r="L96" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2640,7 +2669,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="97" spans="12:15">
+    <row r="97" spans="12:15" ht="15">
       <c r="L97" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2658,7 +2687,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="98" spans="12:15">
+    <row r="98" spans="12:15" ht="15">
       <c r="L98" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2676,7 +2705,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="99" spans="12:15">
+    <row r="99" spans="12:15" ht="15">
       <c r="L99" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2694,7 +2723,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="100" spans="12:15">
+    <row r="100" spans="12:15" ht="15">
       <c r="L100" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2712,7 +2741,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="101" spans="12:15">
+    <row r="101" spans="12:15" ht="15">
       <c r="L101" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2730,7 +2759,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="102" spans="12:15">
+    <row r="102" spans="12:15" ht="15">
       <c r="L102" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2748,7 +2777,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="103" spans="12:15">
+    <row r="103" spans="12:15" ht="15">
       <c r="L103" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2766,7 +2795,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="104" spans="12:15">
+    <row r="104" spans="12:15" ht="15">
       <c r="L104" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2784,7 +2813,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="105" spans="12:15">
+    <row r="105" spans="12:15" ht="15">
       <c r="L105" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2802,7 +2831,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="106" spans="12:15">
+    <row r="106" spans="12:15" ht="15">
       <c r="L106" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2820,7 +2849,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="107" spans="12:15">
+    <row r="107" spans="12:15" ht="15">
       <c r="L107" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2838,7 +2867,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="108" spans="12:15">
+    <row r="108" spans="12:15" ht="15">
       <c r="L108" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2856,7 +2885,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="109" spans="12:15">
+    <row r="109" spans="12:15" ht="15">
       <c r="L109" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2874,7 +2903,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="110" spans="12:15">
+    <row r="110" spans="12:15" ht="15">
       <c r="L110" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2892,7 +2921,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="111" spans="12:15">
+    <row r="111" spans="12:15" ht="15">
       <c r="L111" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2910,7 +2939,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="112" spans="12:15">
+    <row r="112" spans="12:15" ht="15">
       <c r="L112" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2928,7 +2957,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="113" spans="12:15">
+    <row r="113" spans="12:15" ht="15">
       <c r="L113" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2946,7 +2975,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="114" spans="12:15">
+    <row r="114" spans="12:15" ht="15">
       <c r="L114" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2964,7 +2993,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="115" spans="12:15">
+    <row r="115" spans="12:15" ht="15">
       <c r="L115" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -2982,7 +3011,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="116" spans="12:15">
+    <row r="116" spans="12:15" ht="15">
       <c r="L116" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3000,7 +3029,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="117" spans="12:15">
+    <row r="117" spans="12:15" ht="15">
       <c r="L117" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3018,7 +3047,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="118" spans="12:15">
+    <row r="118" spans="12:15" ht="15">
       <c r="L118" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3036,7 +3065,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="119" spans="12:15">
+    <row r="119" spans="12:15" ht="15">
       <c r="L119" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3054,7 +3083,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="120" spans="12:15">
+    <row r="120" spans="12:15" ht="15">
       <c r="L120" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3072,7 +3101,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="121" spans="12:15">
+    <row r="121" spans="12:15" ht="15">
       <c r="L121" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3090,7 +3119,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="122" spans="12:15">
+    <row r="122" spans="12:15" ht="15">
       <c r="L122" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3108,7 +3137,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="123" spans="12:15">
+    <row r="123" spans="12:15" ht="15">
       <c r="L123" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3126,7 +3155,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="124" spans="12:15">
+    <row r="124" spans="12:15" ht="15">
       <c r="L124" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3144,7 +3173,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="125" spans="12:15">
+    <row r="125" spans="12:15" ht="15">
       <c r="L125" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3162,7 +3191,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="126" spans="12:15">
+    <row r="126" spans="12:15" ht="15">
       <c r="L126" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3180,7 +3209,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="127" spans="12:15">
+    <row r="127" spans="12:15" ht="15">
       <c r="L127" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3198,7 +3227,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="128" spans="12:15">
+    <row r="128" spans="12:15" ht="15">
       <c r="L128" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3216,7 +3245,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="129" spans="12:15">
+    <row r="129" spans="12:15" ht="15">
       <c r="L129" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3234,7 +3263,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="130" spans="12:15">
+    <row r="130" spans="12:15" ht="15">
       <c r="L130" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3252,7 +3281,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="131" spans="12:15">
+    <row r="131" spans="12:15" ht="15">
       <c r="L131" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3270,7 +3299,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="132" spans="12:15">
+    <row r="132" spans="12:15" ht="15">
       <c r="L132" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3288,7 +3317,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="133" spans="12:15">
+    <row r="133" spans="12:15" ht="15">
       <c r="L133" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3306,7 +3335,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="134" spans="12:15">
+    <row r="134" spans="12:15" ht="15">
       <c r="L134" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3324,7 +3353,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="135" spans="12:15">
+    <row r="135" spans="12:15" ht="15">
       <c r="L135" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3342,7 +3371,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="136" spans="12:15">
+    <row r="136" spans="12:15" ht="15">
       <c r="L136" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
@@ -3360,7 +3389,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="137" spans="12:15">
+    <row r="137" spans="12:15" ht="15">
       <c r="L137" s="5" t="e">
         <f t="shared" ref="L137:L200" si="6">IF(N137=0,"YES",N137)</f>
         <v>#VALUE!</v>
@@ -3378,7 +3407,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="138" spans="12:15">
+    <row r="138" spans="12:15" ht="15">
       <c r="L138" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3396,7 +3425,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="139" spans="12:15">
+    <row r="139" spans="12:15" ht="15">
       <c r="L139" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3414,7 +3443,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="140" spans="12:15">
+    <row r="140" spans="12:15" ht="15">
       <c r="L140" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3432,7 +3461,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="141" spans="12:15">
+    <row r="141" spans="12:15" ht="15">
       <c r="L141" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3450,7 +3479,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="142" spans="12:15">
+    <row r="142" spans="12:15" ht="15">
       <c r="L142" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3468,7 +3497,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="143" spans="12:15">
+    <row r="143" spans="12:15" ht="15">
       <c r="L143" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3486,7 +3515,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="144" spans="12:15">
+    <row r="144" spans="12:15" ht="15">
       <c r="L144" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3504,7 +3533,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="145" spans="12:15">
+    <row r="145" spans="12:15" ht="15">
       <c r="L145" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3522,7 +3551,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="146" spans="12:15">
+    <row r="146" spans="12:15" ht="15">
       <c r="L146" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3540,7 +3569,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="147" spans="12:15">
+    <row r="147" spans="12:15" ht="15">
       <c r="L147" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3558,7 +3587,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="148" spans="12:15">
+    <row r="148" spans="12:15" ht="15">
       <c r="L148" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3576,7 +3605,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="149" spans="12:15">
+    <row r="149" spans="12:15" ht="15">
       <c r="L149" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3594,7 +3623,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="150" spans="12:15">
+    <row r="150" spans="12:15" ht="15">
       <c r="L150" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3612,7 +3641,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="151" spans="12:15">
+    <row r="151" spans="12:15" ht="15">
       <c r="L151" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3630,7 +3659,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="152" spans="12:15">
+    <row r="152" spans="12:15" ht="15">
       <c r="L152" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3648,7 +3677,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="153" spans="12:15">
+    <row r="153" spans="12:15" ht="15">
       <c r="L153" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3666,7 +3695,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="154" spans="12:15">
+    <row r="154" spans="12:15" ht="15">
       <c r="L154" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3684,7 +3713,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="155" spans="12:15">
+    <row r="155" spans="12:15" ht="15">
       <c r="L155" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3702,7 +3731,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="156" spans="12:15">
+    <row r="156" spans="12:15" ht="15">
       <c r="L156" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3720,7 +3749,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="157" spans="12:15">
+    <row r="157" spans="12:15" ht="15">
       <c r="L157" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3738,7 +3767,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="158" spans="12:15">
+    <row r="158" spans="12:15" ht="15">
       <c r="L158" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3756,7 +3785,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="159" spans="12:15">
+    <row r="159" spans="12:15" ht="15">
       <c r="L159" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3774,7 +3803,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="160" spans="12:15">
+    <row r="160" spans="12:15" ht="15">
       <c r="L160" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3792,7 +3821,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="161" spans="12:15">
+    <row r="161" spans="12:15" ht="15">
       <c r="L161" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3810,7 +3839,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="162" spans="12:15">
+    <row r="162" spans="12:15" ht="15">
       <c r="L162" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3828,7 +3857,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="163" spans="12:15">
+    <row r="163" spans="12:15" ht="15">
       <c r="L163" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3846,7 +3875,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="164" spans="12:15">
+    <row r="164" spans="12:15" ht="15">
       <c r="L164" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3864,7 +3893,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="165" spans="12:15">
+    <row r="165" spans="12:15" ht="15">
       <c r="L165" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3882,7 +3911,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="166" spans="12:15">
+    <row r="166" spans="12:15" ht="15">
       <c r="L166" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3900,7 +3929,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="167" spans="12:15">
+    <row r="167" spans="12:15" ht="15">
       <c r="L167" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3918,7 +3947,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="168" spans="12:15">
+    <row r="168" spans="12:15" ht="15">
       <c r="L168" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3936,7 +3965,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="169" spans="12:15">
+    <row r="169" spans="12:15" ht="15">
       <c r="L169" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3954,7 +3983,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="170" spans="12:15">
+    <row r="170" spans="12:15" ht="15">
       <c r="L170" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3972,7 +4001,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="171" spans="12:15">
+    <row r="171" spans="12:15" ht="15">
       <c r="L171" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3990,7 +4019,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="172" spans="12:15">
+    <row r="172" spans="12:15" ht="15">
       <c r="L172" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4008,7 +4037,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="173" spans="12:15">
+    <row r="173" spans="12:15" ht="15">
       <c r="L173" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4026,7 +4055,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="174" spans="12:15">
+    <row r="174" spans="12:15" ht="15">
       <c r="L174" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4044,7 +4073,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="175" spans="12:15">
+    <row r="175" spans="12:15" ht="15">
       <c r="L175" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4062,7 +4091,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="176" spans="12:15">
+    <row r="176" spans="12:15" ht="15">
       <c r="L176" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4080,7 +4109,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="177" spans="12:15">
+    <row r="177" spans="12:15" ht="15">
       <c r="L177" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4098,7 +4127,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="178" spans="12:15">
+    <row r="178" spans="12:15" ht="15">
       <c r="L178" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4116,7 +4145,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="179" spans="12:15">
+    <row r="179" spans="12:15" ht="15">
       <c r="L179" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4134,7 +4163,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="180" spans="12:15">
+    <row r="180" spans="12:15" ht="15">
       <c r="L180" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4152,7 +4181,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="181" spans="12:15">
+    <row r="181" spans="12:15" ht="15">
       <c r="L181" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4170,7 +4199,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="182" spans="12:15">
+    <row r="182" spans="12:15" ht="15">
       <c r="L182" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4188,7 +4217,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="183" spans="12:15">
+    <row r="183" spans="12:15" ht="15">
       <c r="L183" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4206,7 +4235,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="184" spans="12:15">
+    <row r="184" spans="12:15" ht="15">
       <c r="L184" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4224,7 +4253,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="185" spans="12:15">
+    <row r="185" spans="12:15" ht="15">
       <c r="L185" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4242,7 +4271,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="186" spans="12:15">
+    <row r="186" spans="12:15" ht="15">
       <c r="L186" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4260,7 +4289,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="187" spans="12:15">
+    <row r="187" spans="12:15" ht="15">
       <c r="L187" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4278,7 +4307,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="188" spans="12:15">
+    <row r="188" spans="12:15" ht="15">
       <c r="L188" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4296,7 +4325,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="189" spans="12:15">
+    <row r="189" spans="12:15" ht="15">
       <c r="L189" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4314,7 +4343,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="190" spans="12:15">
+    <row r="190" spans="12:15" ht="15">
       <c r="L190" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4332,7 +4361,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="191" spans="12:15">
+    <row r="191" spans="12:15" ht="15">
       <c r="L191" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4350,7 +4379,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="192" spans="12:15">
+    <row r="192" spans="12:15" ht="15">
       <c r="L192" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4368,7 +4397,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="193" spans="12:15">
+    <row r="193" spans="12:15" ht="15">
       <c r="L193" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4386,7 +4415,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="194" spans="12:15">
+    <row r="194" spans="12:15" ht="15">
       <c r="L194" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4404,7 +4433,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="195" spans="12:15">
+    <row r="195" spans="12:15" ht="15">
       <c r="L195" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4422,7 +4451,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="196" spans="12:15">
+    <row r="196" spans="12:15" ht="15">
       <c r="L196" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4440,7 +4469,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="197" spans="12:15">
+    <row r="197" spans="12:15" ht="15">
       <c r="L197" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4458,7 +4487,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="198" spans="12:15">
+    <row r="198" spans="12:15" ht="15">
       <c r="L198" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4476,7 +4505,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="199" spans="12:15">
+    <row r="199" spans="12:15" ht="15">
       <c r="L199" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4494,7 +4523,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="200" spans="12:15">
+    <row r="200" spans="12:15" ht="15">
       <c r="L200" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4512,7 +4541,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="201" spans="12:15">
+    <row r="201" spans="12:15" ht="15">
       <c r="L201" s="5" t="e">
         <f t="shared" ref="L201:L264" si="8">IF(N201=0,"YES",N201)</f>
         <v>#VALUE!</v>
@@ -4530,7 +4559,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="202" spans="12:15">
+    <row r="202" spans="12:15" ht="15">
       <c r="L202" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4548,7 +4577,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="203" spans="12:15">
+    <row r="203" spans="12:15" ht="15">
       <c r="L203" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4566,7 +4595,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="204" spans="12:15">
+    <row r="204" spans="12:15" ht="15">
       <c r="L204" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4584,7 +4613,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="205" spans="12:15">
+    <row r="205" spans="12:15" ht="15">
       <c r="L205" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4602,7 +4631,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="206" spans="12:15">
+    <row r="206" spans="12:15" ht="15">
       <c r="L206" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4620,7 +4649,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="207" spans="12:15">
+    <row r="207" spans="12:15" ht="15">
       <c r="L207" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4638,7 +4667,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="208" spans="12:15">
+    <row r="208" spans="12:15" ht="15">
       <c r="L208" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4656,7 +4685,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="209" spans="12:15">
+    <row r="209" spans="12:15" ht="15">
       <c r="L209" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4674,7 +4703,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="210" spans="12:15">
+    <row r="210" spans="12:15" ht="15">
       <c r="L210" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4692,7 +4721,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="211" spans="12:15">
+    <row r="211" spans="12:15" ht="15">
       <c r="L211" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4710,7 +4739,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="212" spans="12:15">
+    <row r="212" spans="12:15" ht="15">
       <c r="L212" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4728,7 +4757,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="213" spans="12:15">
+    <row r="213" spans="12:15" ht="15">
       <c r="L213" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4746,7 +4775,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="214" spans="12:15">
+    <row r="214" spans="12:15" ht="15">
       <c r="L214" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4764,7 +4793,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="215" spans="12:15">
+    <row r="215" spans="12:15" ht="15">
       <c r="L215" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4782,7 +4811,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="216" spans="12:15">
+    <row r="216" spans="12:15" ht="15">
       <c r="L216" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4800,7 +4829,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="217" spans="12:15">
+    <row r="217" spans="12:15" ht="15">
       <c r="L217" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4818,7 +4847,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="218" spans="12:15">
+    <row r="218" spans="12:15" ht="15">
       <c r="L218" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4836,7 +4865,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="219" spans="12:15">
+    <row r="219" spans="12:15" ht="15">
       <c r="L219" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4854,7 +4883,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="220" spans="12:15">
+    <row r="220" spans="12:15" ht="15">
       <c r="L220" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4872,7 +4901,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="221" spans="12:15">
+    <row r="221" spans="12:15" ht="15">
       <c r="L221" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4890,7 +4919,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="222" spans="12:15">
+    <row r="222" spans="12:15" ht="15">
       <c r="L222" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4908,7 +4937,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" spans="12:15">
+    <row r="223" spans="12:15" ht="15">
       <c r="L223" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4926,7 +4955,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="224" spans="12:15">
+    <row r="224" spans="12:15" ht="15">
       <c r="L224" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4944,7 +4973,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="225" spans="12:15">
+    <row r="225" spans="12:15" ht="15">
       <c r="L225" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4962,7 +4991,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="226" spans="12:15">
+    <row r="226" spans="12:15" ht="15">
       <c r="L226" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4980,7 +5009,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="227" spans="12:15">
+    <row r="227" spans="12:15" ht="15">
       <c r="L227" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -4998,7 +5027,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="228" spans="12:15">
+    <row r="228" spans="12:15" ht="15">
       <c r="L228" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5016,7 +5045,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="229" spans="12:15">
+    <row r="229" spans="12:15" ht="15">
       <c r="L229" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5034,7 +5063,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="230" spans="12:15">
+    <row r="230" spans="12:15" ht="15">
       <c r="L230" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5052,7 +5081,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="231" spans="12:15">
+    <row r="231" spans="12:15" ht="15">
       <c r="L231" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5070,7 +5099,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="232" spans="12:15">
+    <row r="232" spans="12:15" ht="15">
       <c r="L232" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5088,7 +5117,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="233" spans="12:15">
+    <row r="233" spans="12:15" ht="15">
       <c r="L233" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5106,7 +5135,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="234" spans="12:15">
+    <row r="234" spans="12:15" ht="15">
       <c r="L234" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5124,7 +5153,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="235" spans="12:15">
+    <row r="235" spans="12:15" ht="15">
       <c r="L235" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5142,7 +5171,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="236" spans="12:15">
+    <row r="236" spans="12:15" ht="15">
       <c r="L236" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5160,7 +5189,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="237" spans="12:15">
+    <row r="237" spans="12:15" ht="15">
       <c r="L237" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5178,7 +5207,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="238" spans="12:15">
+    <row r="238" spans="12:15" ht="15">
       <c r="L238" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5196,7 +5225,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="239" spans="12:15">
+    <row r="239" spans="12:15" ht="15">
       <c r="L239" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5214,7 +5243,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="240" spans="12:15">
+    <row r="240" spans="12:15" ht="15">
       <c r="L240" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5232,7 +5261,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="241" spans="12:15">
+    <row r="241" spans="12:15" ht="15">
       <c r="L241" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5250,7 +5279,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="242" spans="12:15">
+    <row r="242" spans="12:15" ht="15">
       <c r="L242" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5268,7 +5297,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="243" spans="12:15">
+    <row r="243" spans="12:15" ht="15">
       <c r="L243" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5286,7 +5315,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="244" spans="12:15">
+    <row r="244" spans="12:15" ht="15">
       <c r="L244" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5304,7 +5333,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="245" spans="12:15">
+    <row r="245" spans="12:15" ht="15">
       <c r="L245" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5322,7 +5351,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="246" spans="12:15">
+    <row r="246" spans="12:15" ht="15">
       <c r="L246" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5340,7 +5369,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="247" spans="12:15">
+    <row r="247" spans="12:15" ht="15">
       <c r="L247" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5358,7 +5387,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="248" spans="12:15">
+    <row r="248" spans="12:15" ht="15">
       <c r="L248" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5376,7 +5405,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="249" spans="12:15">
+    <row r="249" spans="12:15" ht="15">
       <c r="L249" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5394,7 +5423,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="250" spans="12:15">
+    <row r="250" spans="12:15" ht="15">
       <c r="L250" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5412,7 +5441,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="251" spans="12:15">
+    <row r="251" spans="12:15" ht="15">
       <c r="L251" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5430,7 +5459,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="252" spans="12:15">
+    <row r="252" spans="12:15" ht="15">
       <c r="L252" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5448,7 +5477,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="253" spans="12:15">
+    <row r="253" spans="12:15" ht="15">
       <c r="L253" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5466,7 +5495,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="254" spans="12:15">
+    <row r="254" spans="12:15" ht="15">
       <c r="L254" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5484,7 +5513,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="255" spans="12:15">
+    <row r="255" spans="12:15" ht="15">
       <c r="L255" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5502,7 +5531,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="256" spans="12:15">
+    <row r="256" spans="12:15" ht="15">
       <c r="L256" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5520,7 +5549,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="257" spans="12:15">
+    <row r="257" spans="12:15" ht="15">
       <c r="L257" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5538,7 +5567,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="258" spans="12:15">
+    <row r="258" spans="12:15" ht="15">
       <c r="L258" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5556,7 +5585,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="259" spans="12:15">
+    <row r="259" spans="12:15" ht="15">
       <c r="L259" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5574,7 +5603,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="260" spans="12:15">
+    <row r="260" spans="12:15" ht="15">
       <c r="L260" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5592,7 +5621,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="261" spans="12:15">
+    <row r="261" spans="12:15" ht="15">
       <c r="L261" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5610,7 +5639,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="262" spans="12:15">
+    <row r="262" spans="12:15" ht="15">
       <c r="L262" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5628,7 +5657,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="263" spans="12:15">
+    <row r="263" spans="12:15" ht="15">
       <c r="L263" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5646,7 +5675,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="264" spans="12:15">
+    <row r="264" spans="12:15" ht="15">
       <c r="L264" s="5" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
@@ -5664,7 +5693,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="265" spans="12:15">
+    <row r="265" spans="12:15" ht="15">
       <c r="L265" s="5" t="e">
         <f t="shared" ref="L265:L328" si="10">IF(N265=0,"YES",N265)</f>
         <v>#VALUE!</v>
@@ -5682,7 +5711,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="266" spans="12:15">
+    <row r="266" spans="12:15" ht="15">
       <c r="L266" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5700,7 +5729,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="267" spans="12:15">
+    <row r="267" spans="12:15" ht="15">
       <c r="L267" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5718,7 +5747,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="268" spans="12:15">
+    <row r="268" spans="12:15" ht="15">
       <c r="L268" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5736,7 +5765,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="269" spans="12:15">
+    <row r="269" spans="12:15" ht="15">
       <c r="L269" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5754,7 +5783,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="270" spans="12:15">
+    <row r="270" spans="12:15" ht="15">
       <c r="L270" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5772,7 +5801,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="271" spans="12:15">
+    <row r="271" spans="12:15" ht="15">
       <c r="L271" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5790,7 +5819,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="272" spans="12:15">
+    <row r="272" spans="12:15" ht="15">
       <c r="L272" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5808,7 +5837,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="273" spans="12:15">
+    <row r="273" spans="12:15" ht="15">
       <c r="L273" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5826,7 +5855,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="274" spans="12:15">
+    <row r="274" spans="12:15" ht="15">
       <c r="L274" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5844,7 +5873,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="275" spans="12:15">
+    <row r="275" spans="12:15" ht="15">
       <c r="L275" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5862,7 +5891,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="276" spans="12:15">
+    <row r="276" spans="12:15" ht="15">
       <c r="L276" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5880,7 +5909,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="277" spans="12:15">
+    <row r="277" spans="12:15" ht="15">
       <c r="L277" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5898,7 +5927,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="278" spans="12:15">
+    <row r="278" spans="12:15" ht="15">
       <c r="L278" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5916,7 +5945,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="279" spans="12:15">
+    <row r="279" spans="12:15" ht="15">
       <c r="L279" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5934,7 +5963,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="280" spans="12:15">
+    <row r="280" spans="12:15" ht="15">
       <c r="L280" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5952,7 +5981,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="281" spans="12:15">
+    <row r="281" spans="12:15" ht="15">
       <c r="L281" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5970,7 +5999,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="282" spans="12:15">
+    <row r="282" spans="12:15" ht="15">
       <c r="L282" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -5988,7 +6017,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="283" spans="12:15">
+    <row r="283" spans="12:15" ht="15">
       <c r="L283" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6006,7 +6035,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="284" spans="12:15">
+    <row r="284" spans="12:15" ht="15">
       <c r="L284" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6024,7 +6053,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="285" spans="12:15">
+    <row r="285" spans="12:15" ht="15">
       <c r="L285" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6042,7 +6071,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="286" spans="12:15">
+    <row r="286" spans="12:15" ht="15">
       <c r="L286" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6060,7 +6089,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="287" spans="12:15">
+    <row r="287" spans="12:15" ht="15">
       <c r="L287" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6078,7 +6107,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="288" spans="12:15">
+    <row r="288" spans="12:15" ht="15">
       <c r="L288" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6096,7 +6125,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="289" spans="12:15">
+    <row r="289" spans="12:15" ht="15">
       <c r="L289" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6114,7 +6143,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="290" spans="12:15">
+    <row r="290" spans="12:15" ht="15">
       <c r="L290" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6132,7 +6161,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="291" spans="12:15">
+    <row r="291" spans="12:15" ht="15">
       <c r="L291" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6150,7 +6179,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="292" spans="12:15">
+    <row r="292" spans="12:15" ht="15">
       <c r="L292" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6168,7 +6197,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="293" spans="12:15">
+    <row r="293" spans="12:15" ht="15">
       <c r="L293" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6186,7 +6215,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="294" spans="12:15">
+    <row r="294" spans="12:15" ht="15">
       <c r="L294" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6204,7 +6233,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="295" spans="12:15">
+    <row r="295" spans="12:15" ht="15">
       <c r="L295" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6222,7 +6251,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="296" spans="12:15">
+    <row r="296" spans="12:15" ht="15">
       <c r="L296" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6240,7 +6269,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="297" spans="12:15">
+    <row r="297" spans="12:15" ht="15">
       <c r="L297" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6258,7 +6287,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="298" spans="12:15">
+    <row r="298" spans="12:15" ht="15">
       <c r="L298" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6276,7 +6305,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="299" spans="12:15">
+    <row r="299" spans="12:15" ht="15">
       <c r="L299" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6294,7 +6323,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="300" spans="12:15">
+    <row r="300" spans="12:15" ht="15">
       <c r="L300" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6312,7 +6341,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="301" spans="12:15">
+    <row r="301" spans="12:15" ht="15">
       <c r="L301" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6330,7 +6359,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="302" spans="12:15">
+    <row r="302" spans="12:15" ht="15">
       <c r="L302" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6348,7 +6377,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="303" spans="12:15">
+    <row r="303" spans="12:15" ht="15">
       <c r="L303" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6366,7 +6395,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="304" spans="12:15">
+    <row r="304" spans="12:15" ht="15">
       <c r="L304" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6384,7 +6413,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="305" spans="12:15">
+    <row r="305" spans="12:15" ht="15">
       <c r="L305" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6402,7 +6431,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="306" spans="12:15">
+    <row r="306" spans="12:15" ht="15">
       <c r="L306" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6420,7 +6449,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="307" spans="12:15">
+    <row r="307" spans="12:15" ht="15">
       <c r="L307" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6438,7 +6467,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="308" spans="12:15">
+    <row r="308" spans="12:15" ht="15">
       <c r="L308" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6456,7 +6485,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="309" spans="12:15">
+    <row r="309" spans="12:15" ht="15">
       <c r="L309" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6474,7 +6503,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="310" spans="12:15">
+    <row r="310" spans="12:15" ht="15">
       <c r="L310" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6492,7 +6521,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="311" spans="12:15">
+    <row r="311" spans="12:15" ht="15">
       <c r="L311" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6510,7 +6539,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="312" spans="12:15">
+    <row r="312" spans="12:15" ht="15">
       <c r="L312" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6528,7 +6557,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="313" spans="12:15">
+    <row r="313" spans="12:15" ht="15">
       <c r="L313" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6546,7 +6575,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="314" spans="12:15">
+    <row r="314" spans="12:15" ht="15">
       <c r="L314" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6564,7 +6593,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="315" spans="12:15">
+    <row r="315" spans="12:15" ht="15">
       <c r="L315" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6582,7 +6611,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="316" spans="12:15">
+    <row r="316" spans="12:15" ht="15">
       <c r="L316" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6600,7 +6629,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="317" spans="12:15">
+    <row r="317" spans="12:15" ht="15">
       <c r="L317" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6618,7 +6647,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="318" spans="12:15">
+    <row r="318" spans="12:15" ht="15">
       <c r="L318" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6636,7 +6665,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="319" spans="12:15">
+    <row r="319" spans="12:15" ht="15">
       <c r="L319" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6654,7 +6683,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="320" spans="12:15">
+    <row r="320" spans="12:15" ht="15">
       <c r="L320" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6672,7 +6701,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="321" spans="12:15">
+    <row r="321" spans="12:15" ht="15">
       <c r="L321" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6690,7 +6719,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="322" spans="12:15">
+    <row r="322" spans="12:15" ht="15">
       <c r="L322" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6708,7 +6737,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="323" spans="12:15">
+    <row r="323" spans="12:15" ht="15">
       <c r="L323" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6726,7 +6755,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="324" spans="12:15">
+    <row r="324" spans="12:15" ht="15">
       <c r="L324" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6744,7 +6773,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="325" spans="12:15">
+    <row r="325" spans="12:15" ht="15">
       <c r="L325" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6762,7 +6791,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="326" spans="12:15">
+    <row r="326" spans="12:15" ht="15">
       <c r="L326" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6780,7 +6809,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="327" spans="12:15">
+    <row r="327" spans="12:15" ht="15">
       <c r="L327" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6798,7 +6827,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="328" spans="12:15">
+    <row r="328" spans="12:15" ht="15">
       <c r="L328" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
@@ -6816,7 +6845,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="329" spans="12:15">
+    <row r="329" spans="12:15" ht="15">
       <c r="L329" s="5" t="e">
         <f t="shared" ref="L329:L392" si="12">IF(N329=0,"YES",N329)</f>
         <v>#VALUE!</v>
@@ -6834,7 +6863,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="330" spans="12:15">
+    <row r="330" spans="12:15" ht="15">
       <c r="L330" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -6852,7 +6881,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="331" spans="12:15">
+    <row r="331" spans="12:15" ht="15">
       <c r="L331" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -6870,7 +6899,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="332" spans="12:15">
+    <row r="332" spans="12:15" ht="15">
       <c r="L332" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -6888,7 +6917,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="333" spans="12:15">
+    <row r="333" spans="12:15" ht="15">
       <c r="L333" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -6906,7 +6935,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="334" spans="12:15">
+    <row r="334" spans="12:15" ht="15">
       <c r="L334" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -6924,7 +6953,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="335" spans="12:15">
+    <row r="335" spans="12:15" ht="15">
       <c r="L335" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -6942,7 +6971,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="336" spans="12:15">
+    <row r="336" spans="12:15" ht="15">
       <c r="L336" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -6960,7 +6989,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="337" spans="12:15">
+    <row r="337" spans="12:15" ht="15">
       <c r="L337" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -6978,7 +7007,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="338" spans="12:15">
+    <row r="338" spans="12:15" ht="15">
       <c r="L338" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -6996,7 +7025,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="339" spans="12:15">
+    <row r="339" spans="12:15" ht="15">
       <c r="L339" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7014,7 +7043,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="340" spans="12:15">
+    <row r="340" spans="12:15" ht="15">
       <c r="L340" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7032,7 +7061,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="341" spans="12:15">
+    <row r="341" spans="12:15" ht="15">
       <c r="L341" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7050,7 +7079,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="342" spans="12:15">
+    <row r="342" spans="12:15" ht="15">
       <c r="L342" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7068,7 +7097,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="343" spans="12:15">
+    <row r="343" spans="12:15" ht="15">
       <c r="L343" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7086,7 +7115,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="344" spans="12:15">
+    <row r="344" spans="12:15" ht="15">
       <c r="L344" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7104,7 +7133,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="345" spans="12:15">
+    <row r="345" spans="12:15" ht="15">
       <c r="L345" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7122,7 +7151,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="346" spans="12:15">
+    <row r="346" spans="12:15" ht="15">
       <c r="L346" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7140,7 +7169,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="347" spans="12:15">
+    <row r="347" spans="12:15" ht="15">
       <c r="L347" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7158,7 +7187,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="348" spans="12:15">
+    <row r="348" spans="12:15" ht="15">
       <c r="L348" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7176,7 +7205,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="349" spans="12:15">
+    <row r="349" spans="12:15" ht="15">
       <c r="L349" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7194,7 +7223,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="350" spans="12:15">
+    <row r="350" spans="12:15" ht="15">
       <c r="L350" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7212,7 +7241,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="351" spans="12:15">
+    <row r="351" spans="12:15" ht="15">
       <c r="L351" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7230,7 +7259,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="352" spans="12:15">
+    <row r="352" spans="12:15" ht="15">
       <c r="L352" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7248,7 +7277,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="353" spans="12:15">
+    <row r="353" spans="12:15" ht="15">
       <c r="L353" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7266,7 +7295,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="354" spans="12:15">
+    <row r="354" spans="12:15" ht="15">
       <c r="L354" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7284,7 +7313,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="355" spans="12:15">
+    <row r="355" spans="12:15" ht="15">
       <c r="L355" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7302,7 +7331,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="356" spans="12:15">
+    <row r="356" spans="12:15" ht="15">
       <c r="L356" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7320,7 +7349,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="357" spans="12:15">
+    <row r="357" spans="12:15" ht="15">
       <c r="L357" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7338,7 +7367,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="358" spans="12:15">
+    <row r="358" spans="12:15" ht="15">
       <c r="L358" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7356,7 +7385,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="359" spans="12:15">
+    <row r="359" spans="12:15" ht="15">
       <c r="L359" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7374,7 +7403,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="360" spans="12:15">
+    <row r="360" spans="12:15" ht="15">
       <c r="L360" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7392,7 +7421,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="361" spans="12:15">
+    <row r="361" spans="12:15" ht="15">
       <c r="L361" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7410,7 +7439,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="362" spans="12:15">
+    <row r="362" spans="12:15" ht="15">
       <c r="L362" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7428,7 +7457,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="363" spans="12:15">
+    <row r="363" spans="12:15" ht="15">
       <c r="L363" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7446,7 +7475,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="364" spans="12:15">
+    <row r="364" spans="12:15" ht="15">
       <c r="L364" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7464,7 +7493,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="365" spans="12:15">
+    <row r="365" spans="12:15" ht="15">
       <c r="L365" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7482,7 +7511,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="366" spans="12:15">
+    <row r="366" spans="12:15" ht="15">
       <c r="L366" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7500,7 +7529,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="367" spans="12:15">
+    <row r="367" spans="12:15" ht="15">
       <c r="L367" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7518,7 +7547,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="368" spans="12:15">
+    <row r="368" spans="12:15" ht="15">
       <c r="L368" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7536,7 +7565,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="369" spans="12:15">
+    <row r="369" spans="12:15" ht="15">
       <c r="L369" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7554,7 +7583,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="370" spans="12:15">
+    <row r="370" spans="12:15" ht="15">
       <c r="L370" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7572,7 +7601,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="371" spans="12:15">
+    <row r="371" spans="12:15" ht="15">
       <c r="L371" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7590,7 +7619,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="372" spans="12:15">
+    <row r="372" spans="12:15" ht="15">
       <c r="L372" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7608,7 +7637,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="373" spans="12:15">
+    <row r="373" spans="12:15" ht="15">
       <c r="L373" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7626,7 +7655,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="374" spans="12:15">
+    <row r="374" spans="12:15" ht="15">
       <c r="L374" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7644,7 +7673,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="375" spans="12:15">
+    <row r="375" spans="12:15" ht="15">
       <c r="L375" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7662,7 +7691,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="376" spans="12:15">
+    <row r="376" spans="12:15" ht="15">
       <c r="L376" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7680,7 +7709,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="377" spans="12:15">
+    <row r="377" spans="12:15" ht="15">
       <c r="L377" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7698,7 +7727,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="378" spans="12:15">
+    <row r="378" spans="12:15" ht="15">
       <c r="L378" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7716,7 +7745,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="379" spans="12:15">
+    <row r="379" spans="12:15" ht="15">
       <c r="L379" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7734,7 +7763,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="380" spans="12:15">
+    <row r="380" spans="12:15" ht="15">
       <c r="L380" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7752,7 +7781,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="381" spans="12:15">
+    <row r="381" spans="12:15" ht="15">
       <c r="L381" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7770,7 +7799,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="382" spans="12:15">
+    <row r="382" spans="12:15" ht="15">
       <c r="L382" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7788,7 +7817,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="383" spans="12:15">
+    <row r="383" spans="12:15" ht="15">
       <c r="L383" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7806,7 +7835,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="384" spans="12:15">
+    <row r="384" spans="12:15" ht="15">
       <c r="L384" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7824,7 +7853,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="385" spans="12:15">
+    <row r="385" spans="12:15" ht="15">
       <c r="L385" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7842,7 +7871,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="386" spans="12:15">
+    <row r="386" spans="12:15" ht="15">
       <c r="L386" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7860,7 +7889,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="387" spans="12:15">
+    <row r="387" spans="12:15" ht="15">
       <c r="L387" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7878,7 +7907,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="388" spans="12:15">
+    <row r="388" spans="12:15" ht="15">
       <c r="L388" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7896,7 +7925,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="389" spans="12:15">
+    <row r="389" spans="12:15" ht="15">
       <c r="L389" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7914,7 +7943,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="390" spans="12:15">
+    <row r="390" spans="12:15" ht="15">
       <c r="L390" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7932,7 +7961,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="391" spans="12:15">
+    <row r="391" spans="12:15" ht="15">
       <c r="L391" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7950,7 +7979,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="392" spans="12:15">
+    <row r="392" spans="12:15" ht="15">
       <c r="L392" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
@@ -7968,7 +7997,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="393" spans="12:15">
+    <row r="393" spans="12:15" ht="15">
       <c r="L393" s="5" t="e">
         <f t="shared" ref="L393:L456" si="14">IF(N393=0,"YES",N393)</f>
         <v>#VALUE!</v>
@@ -7986,7 +8015,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="394" spans="12:15">
+    <row r="394" spans="12:15" ht="15">
       <c r="L394" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8004,7 +8033,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="395" spans="12:15">
+    <row r="395" spans="12:15" ht="15">
       <c r="L395" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8022,7 +8051,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="396" spans="12:15">
+    <row r="396" spans="12:15" ht="15">
       <c r="L396" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8040,7 +8069,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="397" spans="12:15">
+    <row r="397" spans="12:15" ht="15">
       <c r="L397" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8058,7 +8087,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="398" spans="12:15">
+    <row r="398" spans="12:15" ht="15">
       <c r="L398" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8076,7 +8105,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="399" spans="12:15">
+    <row r="399" spans="12:15" ht="15">
       <c r="L399" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8094,7 +8123,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="400" spans="12:15">
+    <row r="400" spans="12:15" ht="15">
       <c r="L400" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8112,7 +8141,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="401" spans="12:15">
+    <row r="401" spans="12:15" ht="15">
       <c r="L401" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8130,7 +8159,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="402" spans="12:15">
+    <row r="402" spans="12:15" ht="15">
       <c r="L402" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8148,7 +8177,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="403" spans="12:15">
+    <row r="403" spans="12:15" ht="15">
       <c r="L403" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8166,7 +8195,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="404" spans="12:15">
+    <row r="404" spans="12:15" ht="15">
       <c r="L404" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8184,7 +8213,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="405" spans="12:15">
+    <row r="405" spans="12:15" ht="15">
       <c r="L405" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8202,7 +8231,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="406" spans="12:15">
+    <row r="406" spans="12:15" ht="15">
       <c r="L406" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8220,7 +8249,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="407" spans="12:15">
+    <row r="407" spans="12:15" ht="15">
       <c r="L407" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8238,7 +8267,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="408" spans="12:15">
+    <row r="408" spans="12:15" ht="15">
       <c r="L408" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8256,7 +8285,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="409" spans="12:15">
+    <row r="409" spans="12:15" ht="15">
       <c r="L409" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8274,7 +8303,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="410" spans="12:15">
+    <row r="410" spans="12:15" ht="15">
       <c r="L410" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8292,7 +8321,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="411" spans="12:15">
+    <row r="411" spans="12:15" ht="15">
       <c r="L411" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8310,7 +8339,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="412" spans="12:15">
+    <row r="412" spans="12:15" ht="15">
       <c r="L412" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8328,7 +8357,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="413" spans="12:15">
+    <row r="413" spans="12:15" ht="15">
       <c r="L413" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8346,7 +8375,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="414" spans="12:15">
+    <row r="414" spans="12:15" ht="15">
       <c r="L414" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8364,7 +8393,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="415" spans="12:15">
+    <row r="415" spans="12:15" ht="15">
       <c r="L415" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8382,7 +8411,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="416" spans="12:15">
+    <row r="416" spans="12:15" ht="15">
       <c r="L416" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8400,7 +8429,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="417" spans="12:15">
+    <row r="417" spans="12:15" ht="15">
       <c r="L417" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8418,7 +8447,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="418" spans="12:15">
+    <row r="418" spans="12:15" ht="15">
       <c r="L418" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8436,7 +8465,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="419" spans="12:15">
+    <row r="419" spans="12:15" ht="15">
       <c r="L419" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8454,7 +8483,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="420" spans="12:15">
+    <row r="420" spans="12:15" ht="15">
       <c r="L420" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8472,7 +8501,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="421" spans="12:15">
+    <row r="421" spans="12:15" ht="15">
       <c r="L421" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8490,7 +8519,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="422" spans="12:15">
+    <row r="422" spans="12:15" ht="15">
       <c r="L422" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8508,7 +8537,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="423" spans="12:15">
+    <row r="423" spans="12:15" ht="15">
       <c r="L423" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8526,7 +8555,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="424" spans="12:15">
+    <row r="424" spans="12:15" ht="15">
       <c r="L424" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8544,7 +8573,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="425" spans="12:15">
+    <row r="425" spans="12:15" ht="15">
       <c r="L425" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8562,7 +8591,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="426" spans="12:15">
+    <row r="426" spans="12:15" ht="15">
       <c r="L426" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8580,7 +8609,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="427" spans="12:15">
+    <row r="427" spans="12:15" ht="15">
       <c r="L427" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8598,7 +8627,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="428" spans="12:15">
+    <row r="428" spans="12:15" ht="15">
       <c r="L428" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8616,7 +8645,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="429" spans="12:15">
+    <row r="429" spans="12:15" ht="15">
       <c r="L429" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8634,7 +8663,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="430" spans="12:15">
+    <row r="430" spans="12:15" ht="15">
       <c r="L430" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8652,7 +8681,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="431" spans="12:15">
+    <row r="431" spans="12:15" ht="15">
       <c r="L431" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8670,7 +8699,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="432" spans="12:15">
+    <row r="432" spans="12:15" ht="15">
       <c r="L432" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8688,7 +8717,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="433" spans="12:15">
+    <row r="433" spans="12:15" ht="15">
       <c r="L433" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8706,7 +8735,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="434" spans="12:15">
+    <row r="434" spans="12:15" ht="15">
       <c r="L434" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8724,7 +8753,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="435" spans="12:15">
+    <row r="435" spans="12:15" ht="15">
       <c r="L435" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8742,7 +8771,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="436" spans="12:15">
+    <row r="436" spans="12:15" ht="15">
       <c r="L436" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8760,7 +8789,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="437" spans="12:15">
+    <row r="437" spans="12:15" ht="15">
       <c r="L437" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8778,7 +8807,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="438" spans="12:15">
+    <row r="438" spans="12:15" ht="15">
       <c r="L438" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8796,7 +8825,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="439" spans="12:15">
+    <row r="439" spans="12:15" ht="15">
       <c r="L439" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8814,7 +8843,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="440" spans="12:15">
+    <row r="440" spans="12:15" ht="15">
       <c r="L440" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8832,7 +8861,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="441" spans="12:15">
+    <row r="441" spans="12:15" ht="15">
       <c r="L441" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8850,7 +8879,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="442" spans="12:15">
+    <row r="442" spans="12:15" ht="15">
       <c r="L442" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8868,7 +8897,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="443" spans="12:15">
+    <row r="443" spans="12:15" ht="15">
       <c r="L443" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8886,7 +8915,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="444" spans="12:15">
+    <row r="444" spans="12:15" ht="15">
       <c r="L444" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8904,7 +8933,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="445" spans="12:15">
+    <row r="445" spans="12:15" ht="15">
       <c r="L445" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8922,7 +8951,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="446" spans="12:15">
+    <row r="446" spans="12:15" ht="15">
       <c r="L446" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8940,7 +8969,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="447" spans="12:15">
+    <row r="447" spans="12:15" ht="15">
       <c r="L447" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8958,7 +8987,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="448" spans="12:15">
+    <row r="448" spans="12:15" ht="15">
       <c r="L448" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8976,7 +9005,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="449" spans="12:15">
+    <row r="449" spans="12:15" ht="15">
       <c r="L449" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -8994,7 +9023,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="450" spans="12:15">
+    <row r="450" spans="12:15" ht="15">
       <c r="L450" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -9012,7 +9041,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="451" spans="12:15">
+    <row r="451" spans="12:15" ht="15">
       <c r="L451" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -9030,7 +9059,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="452" spans="12:15">
+    <row r="452" spans="12:15" ht="15">
       <c r="L452" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -9048,7 +9077,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="453" spans="12:15">
+    <row r="453" spans="12:15" ht="15">
       <c r="L453" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -9066,7 +9095,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="454" spans="12:15">
+    <row r="454" spans="12:15" ht="15">
       <c r="L454" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -9084,7 +9113,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="455" spans="12:15">
+    <row r="455" spans="12:15" ht="15">
       <c r="L455" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -9102,7 +9131,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="456" spans="12:15">
+    <row r="456" spans="12:15" ht="15">
       <c r="L456" s="5" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
@@ -9120,7 +9149,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="457" spans="12:15">
+    <row r="457" spans="12:15" ht="15">
       <c r="L457" s="5" t="e">
         <f t="shared" ref="L457:L520" si="16">IF(N457=0,"YES",N457)</f>
         <v>#VALUE!</v>
@@ -9138,7 +9167,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="458" spans="12:15">
+    <row r="458" spans="12:15" ht="15">
       <c r="L458" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9156,7 +9185,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="459" spans="12:15">
+    <row r="459" spans="12:15" ht="15">
       <c r="L459" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9174,7 +9203,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="460" spans="12:15">
+    <row r="460" spans="12:15" ht="15">
       <c r="L460" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9192,7 +9221,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="461" spans="12:15">
+    <row r="461" spans="12:15" ht="15">
       <c r="L461" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9210,7 +9239,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="462" spans="12:15">
+    <row r="462" spans="12:15" ht="15">
       <c r="L462" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9228,7 +9257,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="463" spans="12:15">
+    <row r="463" spans="12:15" ht="15">
       <c r="L463" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9246,7 +9275,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="464" spans="12:15">
+    <row r="464" spans="12:15" ht="15">
       <c r="L464" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9264,7 +9293,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="465" spans="12:15">
+    <row r="465" spans="12:15" ht="15">
       <c r="L465" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9282,7 +9311,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="466" spans="12:15">
+    <row r="466" spans="12:15" ht="15">
       <c r="L466" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9300,7 +9329,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="467" spans="12:15">
+    <row r="467" spans="12:15" ht="15">
       <c r="L467" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9318,7 +9347,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="468" spans="12:15">
+    <row r="468" spans="12:15" ht="15">
       <c r="L468" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9336,7 +9365,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="469" spans="12:15">
+    <row r="469" spans="12:15" ht="15">
       <c r="L469" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9354,7 +9383,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="470" spans="12:15">
+    <row r="470" spans="12:15" ht="15">
       <c r="L470" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9372,7 +9401,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="471" spans="12:15">
+    <row r="471" spans="12:15" ht="15">
       <c r="L471" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9390,7 +9419,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="472" spans="12:15">
+    <row r="472" spans="12:15" ht="15">
       <c r="L472" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9408,7 +9437,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="473" spans="12:15">
+    <row r="473" spans="12:15" ht="15">
       <c r="L473" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9426,7 +9455,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="474" spans="12:15">
+    <row r="474" spans="12:15" ht="15">
       <c r="L474" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9444,7 +9473,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="475" spans="12:15">
+    <row r="475" spans="12:15" ht="15">
       <c r="L475" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9462,7 +9491,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="476" spans="12:15">
+    <row r="476" spans="12:15" ht="15">
       <c r="L476" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9480,7 +9509,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="477" spans="12:15">
+    <row r="477" spans="12:15" ht="15">
       <c r="L477" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9498,7 +9527,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="478" spans="12:15">
+    <row r="478" spans="12:15" ht="15">
       <c r="L478" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9516,7 +9545,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="479" spans="12:15">
+    <row r="479" spans="12:15" ht="15">
       <c r="L479" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9534,7 +9563,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="480" spans="12:15">
+    <row r="480" spans="12:15" ht="15">
       <c r="L480" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9552,7 +9581,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="481" spans="12:15">
+    <row r="481" spans="12:15" ht="15">
       <c r="L481" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9570,7 +9599,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="482" spans="12:15">
+    <row r="482" spans="12:15" ht="15">
       <c r="L482" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9588,7 +9617,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="483" spans="12:15">
+    <row r="483" spans="12:15" ht="15">
       <c r="L483" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9606,7 +9635,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="484" spans="12:15">
+    <row r="484" spans="12:15" ht="15">
       <c r="L484" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9624,7 +9653,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="485" spans="12:15">
+    <row r="485" spans="12:15" ht="15">
       <c r="L485" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9642,7 +9671,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="486" spans="12:15">
+    <row r="486" spans="12:15" ht="15">
       <c r="L486" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9660,7 +9689,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="487" spans="12:15">
+    <row r="487" spans="12:15" ht="15">
       <c r="L487" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9678,7 +9707,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="488" spans="12:15">
+    <row r="488" spans="12:15" ht="15">
       <c r="L488" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9696,7 +9725,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="489" spans="12:15">
+    <row r="489" spans="12:15" ht="15">
       <c r="L489" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9714,7 +9743,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="490" spans="12:15">
+    <row r="490" spans="12:15" ht="15">
       <c r="L490" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9732,7 +9761,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="491" spans="12:15">
+    <row r="491" spans="12:15" ht="15">
       <c r="L491" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9750,7 +9779,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="492" spans="12:15">
+    <row r="492" spans="12:15" ht="15">
       <c r="L492" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9768,7 +9797,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="493" spans="12:15">
+    <row r="493" spans="12:15" ht="15">
       <c r="L493" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9786,7 +9815,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="494" spans="12:15">
+    <row r="494" spans="12:15" ht="15">
       <c r="L494" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9804,7 +9833,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="495" spans="12:15">
+    <row r="495" spans="12:15" ht="15">
       <c r="L495" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9822,7 +9851,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="496" spans="12:15">
+    <row r="496" spans="12:15" ht="15">
       <c r="L496" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9840,7 +9869,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="497" spans="12:15">
+    <row r="497" spans="12:15" ht="15">
       <c r="L497" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9858,7 +9887,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="498" spans="12:15">
+    <row r="498" spans="12:15" ht="15">
       <c r="L498" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9876,7 +9905,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="499" spans="12:15">
+    <row r="499" spans="12:15" ht="15">
       <c r="L499" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9894,7 +9923,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="500" spans="12:15">
+    <row r="500" spans="12:15" ht="15">
       <c r="L500" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9912,7 +9941,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="501" spans="12:15">
+    <row r="501" spans="12:15" ht="15">
       <c r="L501" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9930,7 +9959,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="502" spans="12:15">
+    <row r="502" spans="12:15" ht="15">
       <c r="L502" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9948,7 +9977,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="503" spans="12:15">
+    <row r="503" spans="12:15" ht="15">
       <c r="L503" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9966,7 +9995,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="504" spans="12:15">
+    <row r="504" spans="12:15" ht="15">
       <c r="L504" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -9984,7 +10013,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="505" spans="12:15">
+    <row r="505" spans="12:15" ht="15">
       <c r="L505" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10002,7 +10031,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="506" spans="12:15">
+    <row r="506" spans="12:15" ht="15">
       <c r="L506" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10020,7 +10049,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="507" spans="12:15">
+    <row r="507" spans="12:15" ht="15">
       <c r="L507" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10038,7 +10067,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="508" spans="12:15">
+    <row r="508" spans="12:15" ht="15">
       <c r="L508" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10056,7 +10085,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="509" spans="12:15">
+    <row r="509" spans="12:15" ht="15">
       <c r="L509" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10074,7 +10103,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="510" spans="12:15">
+    <row r="510" spans="12:15" ht="15">
       <c r="L510" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10092,7 +10121,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="511" spans="12:15">
+    <row r="511" spans="12:15" ht="15">
       <c r="L511" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10110,7 +10139,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="512" spans="12:15">
+    <row r="512" spans="12:15" ht="15">
       <c r="L512" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10128,7 +10157,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="513" spans="12:15">
+    <row r="513" spans="12:15" ht="15">
       <c r="L513" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10146,7 +10175,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="514" spans="12:15">
+    <row r="514" spans="12:15" ht="15">
       <c r="L514" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10164,7 +10193,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="515" spans="12:15">
+    <row r="515" spans="12:15" ht="15">
       <c r="L515" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10182,7 +10211,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="516" spans="12:15">
+    <row r="516" spans="12:15" ht="15">
       <c r="L516" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10200,7 +10229,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="517" spans="12:15">
+    <row r="517" spans="12:15" ht="15">
       <c r="L517" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10218,7 +10247,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="518" spans="12:15">
+    <row r="518" spans="12:15" ht="15">
       <c r="L518" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10236,7 +10265,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="519" spans="12:15">
+    <row r="519" spans="12:15" ht="15">
       <c r="L519" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10254,7 +10283,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="520" spans="12:15">
+    <row r="520" spans="12:15" ht="15">
       <c r="L520" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#VALUE!</v>
@@ -10272,7 +10301,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="521" spans="12:15">
+    <row r="521" spans="12:15" ht="15">
       <c r="L521" s="5" t="e">
         <f t="shared" ref="L521:L584" si="18">IF(N521=0,"YES",N521)</f>
         <v>#VALUE!</v>
@@ -10290,7 +10319,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="522" spans="12:15">
+    <row r="522" spans="12:15" ht="15">
       <c r="L522" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10308,7 +10337,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="523" spans="12:15">
+    <row r="523" spans="12:15" ht="15">
       <c r="L523" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10326,7 +10355,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="524" spans="12:15">
+    <row r="524" spans="12:15" ht="15">
       <c r="L524" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10344,7 +10373,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="525" spans="12:15">
+    <row r="525" spans="12:15" ht="15">
       <c r="L525" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10362,7 +10391,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="526" spans="12:15">
+    <row r="526" spans="12:15" ht="15">
       <c r="L526" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10380,7 +10409,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="527" spans="12:15">
+    <row r="527" spans="12:15" ht="15">
       <c r="L527" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10398,7 +10427,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="528" spans="12:15">
+    <row r="528" spans="12:15" ht="15">
       <c r="L528" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10416,7 +10445,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="529" spans="12:15">
+    <row r="529" spans="12:15" ht="15">
       <c r="L529" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10434,7 +10463,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="530" spans="12:15">
+    <row r="530" spans="12:15" ht="15">
       <c r="L530" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10452,7 +10481,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="531" spans="12:15">
+    <row r="531" spans="12:15" ht="15">
       <c r="L531" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10470,7 +10499,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="532" spans="12:15">
+    <row r="532" spans="12:15" ht="15">
       <c r="L532" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10488,7 +10517,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="533" spans="12:15">
+    <row r="533" spans="12:15" ht="15">
       <c r="L533" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10506,7 +10535,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="534" spans="12:15">
+    <row r="534" spans="12:15" ht="15">
       <c r="L534" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10524,7 +10553,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="535" spans="12:15">
+    <row r="535" spans="12:15" ht="15">
       <c r="L535" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10542,7 +10571,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="536" spans="12:15">
+    <row r="536" spans="12:15" ht="15">
       <c r="L536" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10560,7 +10589,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="537" spans="12:15">
+    <row r="537" spans="12:15" ht="15">
       <c r="L537" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10578,7 +10607,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="538" spans="12:15">
+    <row r="538" spans="12:15" ht="15">
       <c r="L538" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10596,7 +10625,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="539" spans="12:15">
+    <row r="539" spans="12:15" ht="15">
       <c r="L539" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10614,7 +10643,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="540" spans="12:15">
+    <row r="540" spans="12:15" ht="15">
       <c r="L540" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10632,7 +10661,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="541" spans="12:15">
+    <row r="541" spans="12:15" ht="15">
       <c r="L541" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10650,7 +10679,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="542" spans="12:15">
+    <row r="542" spans="12:15" ht="15">
       <c r="L542" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10668,7 +10697,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="543" spans="12:15">
+    <row r="543" spans="12:15" ht="15">
       <c r="L543" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10686,7 +10715,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="544" spans="12:15">
+    <row r="544" spans="12:15" ht="15">
       <c r="L544" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10704,7 +10733,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="545" spans="12:15">
+    <row r="545" spans="12:15" ht="15">
       <c r="L545" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10722,7 +10751,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="546" spans="12:15">
+    <row r="546" spans="12:15" ht="15">
       <c r="L546" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10740,7 +10769,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="547" spans="12:15">
+    <row r="547" spans="12:15" ht="15">
       <c r="L547" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10758,7 +10787,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="548" spans="12:15">
+    <row r="548" spans="12:15" ht="15">
       <c r="L548" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10776,7 +10805,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="549" spans="12:15">
+    <row r="549" spans="12:15" ht="15">
       <c r="L549" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10794,7 +10823,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="550" spans="12:15">
+    <row r="550" spans="12:15" ht="15">
       <c r="L550" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10812,7 +10841,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="551" spans="12:15">
+    <row r="551" spans="12:15" ht="15">
       <c r="L551" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10830,7 +10859,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="552" spans="12:15">
+    <row r="552" spans="12:15" ht="15">
       <c r="L552" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10848,7 +10877,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="553" spans="12:15">
+    <row r="553" spans="12:15" ht="15">
       <c r="L553" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10866,7 +10895,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="554" spans="12:15">
+    <row r="554" spans="12:15" ht="15">
       <c r="L554" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10884,7 +10913,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="555" spans="12:15">
+    <row r="555" spans="12:15" ht="15">
       <c r="L555" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10902,7 +10931,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="556" spans="12:15">
+    <row r="556" spans="12:15" ht="15">
       <c r="L556" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10920,7 +10949,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="557" spans="12:15">
+    <row r="557" spans="12:15" ht="15">
       <c r="L557" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10938,7 +10967,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="558" spans="12:15">
+    <row r="558" spans="12:15" ht="15">
       <c r="L558" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10956,7 +10985,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="559" spans="12:15">
+    <row r="559" spans="12:15" ht="15">
       <c r="L559" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10974,7 +11003,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="560" spans="12:15">
+    <row r="560" spans="12:15" ht="15">
       <c r="L560" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -10992,7 +11021,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="561" spans="12:15">
+    <row r="561" spans="12:15" ht="15">
       <c r="L561" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11010,7 +11039,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="562" spans="12:15">
+    <row r="562" spans="12:15" ht="15">
       <c r="L562" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11028,7 +11057,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="563" spans="12:15">
+    <row r="563" spans="12:15" ht="15">
       <c r="L563" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11046,7 +11075,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="564" spans="12:15">
+    <row r="564" spans="12:15" ht="15">
       <c r="L564" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11064,7 +11093,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="565" spans="12:15">
+    <row r="565" spans="12:15" ht="15">
       <c r="L565" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11082,7 +11111,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="566" spans="12:15">
+    <row r="566" spans="12:15" ht="15">
       <c r="L566" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11100,7 +11129,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="567" spans="12:15">
+    <row r="567" spans="12:15" ht="15">
       <c r="L567" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11118,7 +11147,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="568" spans="12:15">
+    <row r="568" spans="12:15" ht="15">
       <c r="L568" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11136,7 +11165,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="569" spans="12:15">
+    <row r="569" spans="12:15" ht="15">
       <c r="L569" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11154,7 +11183,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="570" spans="12:15">
+    <row r="570" spans="12:15" ht="15">
       <c r="L570" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11172,7 +11201,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="571" spans="12:15">
+    <row r="571" spans="12:15" ht="15">
       <c r="L571" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11190,7 +11219,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="572" spans="12:15">
+    <row r="572" spans="12:15" ht="15">
       <c r="L572" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11208,7 +11237,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="573" spans="12:15">
+    <row r="573" spans="12:15" ht="15">
       <c r="L573" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11226,7 +11255,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="574" spans="12:15">
+    <row r="574" spans="12:15" ht="15">
       <c r="L574" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11244,7 +11273,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="575" spans="12:15">
+    <row r="575" spans="12:15" ht="15">
       <c r="L575" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11262,7 +11291,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="576" spans="12:15">
+    <row r="576" spans="12:15" ht="15">
       <c r="L576" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11280,7 +11309,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="577" spans="12:15">
+    <row r="577" spans="12:15" ht="15">
       <c r="L577" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11298,7 +11327,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="578" spans="12:15">
+    <row r="578" spans="12:15" ht="15">
       <c r="L578" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11316,7 +11345,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="579" spans="12:15">
+    <row r="579" spans="12:15" ht="15">
       <c r="L579" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11334,7 +11363,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="580" spans="12:15">
+    <row r="580" spans="12:15" ht="15">
       <c r="L580" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11352,7 +11381,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="581" spans="12:15">
+    <row r="581" spans="12:15" ht="15">
       <c r="L581" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11370,7 +11399,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="582" spans="12:15">
+    <row r="582" spans="12:15" ht="15">
       <c r="L582" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11388,7 +11417,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="583" spans="12:15">
+    <row r="583" spans="12:15" ht="15">
       <c r="L583" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11406,7 +11435,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="584" spans="12:15">
+    <row r="584" spans="12:15" ht="15">
       <c r="L584" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
@@ -11424,7 +11453,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="585" spans="12:15">
+    <row r="585" spans="12:15" ht="15">
       <c r="L585" s="5" t="e">
         <f t="shared" ref="L585:L648" si="20">IF(N585=0,"YES",N585)</f>
         <v>#VALUE!</v>
@@ -11442,7 +11471,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="586" spans="12:15">
+    <row r="586" spans="12:15" ht="15">
       <c r="L586" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11460,7 +11489,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="587" spans="12:15">
+    <row r="587" spans="12:15" ht="15">
       <c r="L587" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11478,7 +11507,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="588" spans="12:15">
+    <row r="588" spans="12:15" ht="15">
       <c r="L588" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11496,7 +11525,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="589" spans="12:15">
+    <row r="589" spans="12:15" ht="15">
       <c r="L589" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11514,7 +11543,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="590" spans="12:15">
+    <row r="590" spans="12:15" ht="15">
       <c r="L590" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11532,7 +11561,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="591" spans="12:15">
+    <row r="591" spans="12:15" ht="15">
       <c r="L591" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11550,7 +11579,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="592" spans="12:15">
+    <row r="592" spans="12:15" ht="15">
       <c r="L592" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11568,7 +11597,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="593" spans="12:15">
+    <row r="593" spans="12:15" ht="15">
       <c r="L593" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11586,7 +11615,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="594" spans="12:15">
+    <row r="594" spans="12:15" ht="15">
       <c r="L594" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11604,7 +11633,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="595" spans="12:15">
+    <row r="595" spans="12:15" ht="15">
       <c r="L595" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11622,7 +11651,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="596" spans="12:15">
+    <row r="596" spans="12:15" ht="15">
       <c r="L596" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11640,7 +11669,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="597" spans="12:15">
+    <row r="597" spans="12:15" ht="15">
       <c r="L597" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11658,7 +11687,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="598" spans="12:15">
+    <row r="598" spans="12:15" ht="15">
       <c r="L598" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11676,7 +11705,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="599" spans="12:15">
+    <row r="599" spans="12:15" ht="15">
       <c r="L599" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11694,7 +11723,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="600" spans="12:15">
+    <row r="600" spans="12:15" ht="15">
       <c r="L600" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11712,7 +11741,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="601" spans="12:15">
+    <row r="601" spans="12:15" ht="15">
       <c r="L601" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11730,7 +11759,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="602" spans="12:15">
+    <row r="602" spans="12:15" ht="15">
       <c r="L602" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11748,7 +11777,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="603" spans="12:15">
+    <row r="603" spans="12:15" ht="15">
       <c r="L603" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11766,7 +11795,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="604" spans="12:15">
+    <row r="604" spans="12:15" ht="15">
       <c r="L604" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11784,7 +11813,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="605" spans="12:15">
+    <row r="605" spans="12:15" ht="15">
       <c r="L605" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11802,7 +11831,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="606" spans="12:15">
+    <row r="606" spans="12:15" ht="15">
       <c r="L606" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11820,7 +11849,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="607" spans="12:15">
+    <row r="607" spans="12:15" ht="15">
       <c r="L607" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11838,7 +11867,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="608" spans="12:15">
+    <row r="608" spans="12:15" ht="15">
       <c r="L608" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11856,7 +11885,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="609" spans="12:15">
+    <row r="609" spans="12:15" ht="15">
       <c r="L609" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11874,7 +11903,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="610" spans="12:15">
+    <row r="610" spans="12:15" ht="15">
       <c r="L610" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11892,7 +11921,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="611" spans="12:15">
+    <row r="611" spans="12:15" ht="15">
       <c r="L611" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11910,7 +11939,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="612" spans="12:15">
+    <row r="612" spans="12:15" ht="15">
       <c r="L612" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11928,7 +11957,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="613" spans="12:15">
+    <row r="613" spans="12:15" ht="15">
       <c r="L613" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11946,7 +11975,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="614" spans="12:15">
+    <row r="614" spans="12:15" ht="15">
       <c r="L614" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11964,7 +11993,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="615" spans="12:15">
+    <row r="615" spans="12:15" ht="15">
       <c r="L615" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -11982,7 +12011,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="616" spans="12:15">
+    <row r="616" spans="12:15" ht="15">
       <c r="L616" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12000,7 +12029,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="617" spans="12:15">
+    <row r="617" spans="12:15" ht="15">
       <c r="L617" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12018,7 +12047,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="618" spans="12:15">
+    <row r="618" spans="12:15" ht="15">
       <c r="L618" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12036,7 +12065,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="619" spans="12:15">
+    <row r="619" spans="12:15" ht="15">
       <c r="L619" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12054,7 +12083,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="620" spans="12:15">
+    <row r="620" spans="12:15" ht="15">
       <c r="L620" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12072,7 +12101,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="621" spans="12:15">
+    <row r="621" spans="12:15" ht="15">
       <c r="L621" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12090,7 +12119,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="622" spans="12:15">
+    <row r="622" spans="12:15" ht="15">
       <c r="L622" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12108,7 +12137,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="623" spans="12:15">
+    <row r="623" spans="12:15" ht="15">
       <c r="L623" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12126,7 +12155,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="624" spans="12:15">
+    <row r="624" spans="12:15" ht="15">
       <c r="L624" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12144,7 +12173,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="625" spans="12:15">
+    <row r="625" spans="12:15" ht="15">
       <c r="L625" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12162,7 +12191,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="626" spans="12:15">
+    <row r="626" spans="12:15" ht="15">
       <c r="L626" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12180,7 +12209,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="627" spans="12:15">
+    <row r="627" spans="12:15" ht="15">
       <c r="L627" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12198,7 +12227,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="628" spans="12:15">
+    <row r="628" spans="12:15" ht="15">
       <c r="L628" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12216,7 +12245,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="629" spans="12:15">
+    <row r="629" spans="12:15" ht="15">
       <c r="L629" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12234,7 +12263,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="630" spans="12:15">
+    <row r="630" spans="12:15" ht="15">
       <c r="L630" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12252,7 +12281,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="631" spans="12:15">
+    <row r="631" spans="12:15" ht="15">
       <c r="L631" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12270,7 +12299,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="632" spans="12:15">
+    <row r="632" spans="12:15" ht="15">
       <c r="L632" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12288,7 +12317,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="633" spans="12:15">
+    <row r="633" spans="12:15" ht="15">
       <c r="L633" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12306,7 +12335,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="634" spans="12:15">
+    <row r="634" spans="12:15" ht="15">
       <c r="L634" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12324,7 +12353,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="635" spans="12:15">
+    <row r="635" spans="12:15" ht="15">
       <c r="L635" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12342,7 +12371,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="636" spans="12:15">
+    <row r="636" spans="12:15" ht="15">
       <c r="L636" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12360,7 +12389,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="637" spans="12:15">
+    <row r="637" spans="12:15" ht="15">
       <c r="L637" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12378,7 +12407,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="638" spans="12:15">
+    <row r="638" spans="12:15" ht="15">
       <c r="L638" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12396,7 +12425,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="639" spans="12:15">
+    <row r="639" spans="12:15" ht="15">
       <c r="L639" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12414,7 +12443,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="640" spans="12:15">
+    <row r="640" spans="12:15" ht="15">
       <c r="L640" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12432,7 +12461,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="641" spans="12:15">
+    <row r="641" spans="12:15" ht="15">
       <c r="L641" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12450,7 +12479,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="642" spans="12:15">
+    <row r="642" spans="12:15" ht="15">
       <c r="L642" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12468,7 +12497,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="643" spans="12:15">
+    <row r="643" spans="12:15" ht="15">
       <c r="L643" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12486,7 +12515,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="644" spans="12:15">
+    <row r="644" spans="12:15" ht="15">
       <c r="L644" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12504,7 +12533,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="645" spans="12:15">
+    <row r="645" spans="12:15" ht="15">
       <c r="L645" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12522,7 +12551,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="646" spans="12:15">
+    <row r="646" spans="12:15" ht="15">
       <c r="L646" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12540,7 +12569,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="647" spans="12:15">
+    <row r="647" spans="12:15" ht="15">
       <c r="L647" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12558,7 +12587,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="648" spans="12:15">
+    <row r="648" spans="12:15" ht="15">
       <c r="L648" s="5" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
@@ -12576,7 +12605,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="649" spans="12:15">
+    <row r="649" spans="12:15" ht="15">
       <c r="L649" s="5" t="e">
         <f t="shared" ref="L649:L712" si="22">IF(N649=0,"YES",N649)</f>
         <v>#VALUE!</v>
@@ -12594,7 +12623,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="650" spans="12:15">
+    <row r="650" spans="12:15" ht="15">
       <c r="L650" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12612,7 +12641,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="651" spans="12:15">
+    <row r="651" spans="12:15" ht="15">
       <c r="L651" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12630,7 +12659,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="652" spans="12:15">
+    <row r="652" spans="12:15" ht="15">
       <c r="L652" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12648,7 +12677,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="653" spans="12:15">
+    <row r="653" spans="12:15" ht="15">
       <c r="L653" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12666,7 +12695,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="654" spans="12:15">
+    <row r="654" spans="12:15" ht="15">
       <c r="L654" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12684,7 +12713,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="655" spans="12:15">
+    <row r="655" spans="12:15" ht="15">
       <c r="L655" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12702,7 +12731,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="656" spans="12:15">
+    <row r="656" spans="12:15" ht="15">
       <c r="L656" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12720,7 +12749,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="657" spans="12:15">
+    <row r="657" spans="12:15" ht="15">
       <c r="L657" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12738,7 +12767,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="658" spans="12:15">
+    <row r="658" spans="12:15" ht="15">
       <c r="L658" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12756,7 +12785,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="659" spans="12:15">
+    <row r="659" spans="12:15" ht="15">
       <c r="L659" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12774,7 +12803,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="660" spans="12:15">
+    <row r="660" spans="12:15" ht="15">
       <c r="L660" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12792,7 +12821,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="661" spans="12:15">
+    <row r="661" spans="12:15" ht="15">
       <c r="L661" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12810,7 +12839,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="662" spans="12:15">
+    <row r="662" spans="12:15" ht="15">
       <c r="L662" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12828,7 +12857,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="663" spans="12:15">
+    <row r="663" spans="12:15" ht="15">
       <c r="L663" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12846,7 +12875,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="664" spans="12:15">
+    <row r="664" spans="12:15" ht="15">
       <c r="L664" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12864,7 +12893,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="665" spans="12:15">
+    <row r="665" spans="12:15" ht="15">
       <c r="L665" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12882,7 +12911,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="666" spans="12:15">
+    <row r="666" spans="12:15" ht="15">
       <c r="L666" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12900,7 +12929,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="667" spans="12:15">
+    <row r="667" spans="12:15" ht="15">
       <c r="L667" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12918,7 +12947,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="668" spans="12:15">
+    <row r="668" spans="12:15" ht="15">
       <c r="L668" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12936,7 +12965,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="669" spans="12:15">
+    <row r="669" spans="12:15" ht="15">
       <c r="L669" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12954,7 +12983,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="670" spans="12:15">
+    <row r="670" spans="12:15" ht="15">
       <c r="L670" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12972,7 +13001,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="671" spans="12:15">
+    <row r="671" spans="12:15" ht="15">
       <c r="L671" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -12990,7 +13019,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="672" spans="12:15">
+    <row r="672" spans="12:15" ht="15">
       <c r="L672" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13008,7 +13037,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="673" spans="12:15">
+    <row r="673" spans="12:15" ht="15">
       <c r="L673" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13026,7 +13055,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="674" spans="12:15">
+    <row r="674" spans="12:15" ht="15">
       <c r="L674" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13044,7 +13073,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="675" spans="12:15">
+    <row r="675" spans="12:15" ht="15">
       <c r="L675" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13062,7 +13091,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="676" spans="12:15">
+    <row r="676" spans="12:15" ht="15">
       <c r="L676" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13080,7 +13109,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="677" spans="12:15">
+    <row r="677" spans="12:15" ht="15">
       <c r="L677" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13098,7 +13127,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="678" spans="12:15">
+    <row r="678" spans="12:15" ht="15">
       <c r="L678" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13116,7 +13145,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="679" spans="12:15">
+    <row r="679" spans="12:15" ht="15">
       <c r="L679" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13134,7 +13163,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="680" spans="12:15">
+    <row r="680" spans="12:15" ht="15">
       <c r="L680" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13152,7 +13181,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="681" spans="12:15">
+    <row r="681" spans="12:15" ht="15">
       <c r="L681" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13170,7 +13199,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="682" spans="12:15">
+    <row r="682" spans="12:15" ht="15">
       <c r="L682" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13188,7 +13217,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="683" spans="12:15">
+    <row r="683" spans="12:15" ht="15">
       <c r="L683" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13206,7 +13235,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="684" spans="12:15">
+    <row r="684" spans="12:15" ht="15">
       <c r="L684" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13224,7 +13253,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="685" spans="12:15">
+    <row r="685" spans="12:15" ht="15">
       <c r="L685" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13242,7 +13271,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="686" spans="12:15">
+    <row r="686" spans="12:15" ht="15">
       <c r="L686" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13260,7 +13289,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="687" spans="12:15">
+    <row r="687" spans="12:15" ht="15">
       <c r="L687" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13278,7 +13307,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="688" spans="12:15">
+    <row r="688" spans="12:15" ht="15">
       <c r="L688" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13296,7 +13325,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="689" spans="12:15">
+    <row r="689" spans="12:15" ht="15">
       <c r="L689" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13314,7 +13343,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="690" spans="12:15">
+    <row r="690" spans="12:15" ht="15">
       <c r="L690" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13332,7 +13361,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="691" spans="12:15">
+    <row r="691" spans="12:15" ht="15">
       <c r="L691" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13350,7 +13379,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="692" spans="12:15">
+    <row r="692" spans="12:15" ht="15">
       <c r="L692" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13368,7 +13397,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="693" spans="12:15">
+    <row r="693" spans="12:15" ht="15">
       <c r="L693" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13386,7 +13415,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="694" spans="12:15">
+    <row r="694" spans="12:15" ht="15">
       <c r="L694" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13404,7 +13433,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="695" spans="12:15">
+    <row r="695" spans="12:15" ht="15">
       <c r="L695" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13422,7 +13451,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="696" spans="12:15">
+    <row r="696" spans="12:15" ht="15">
       <c r="L696" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13440,7 +13469,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="697" spans="12:15">
+    <row r="697" spans="12:15" ht="15">
       <c r="L697" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13458,7 +13487,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="698" spans="12:15">
+    <row r="698" spans="12:15" ht="15">
       <c r="L698" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13476,7 +13505,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="699" spans="12:15">
+    <row r="699" spans="12:15" ht="15">
       <c r="L699" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13494,7 +13523,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="700" spans="12:15">
+    <row r="700" spans="12:15" ht="15">
       <c r="L700" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13512,7 +13541,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="701" spans="12:15">
+    <row r="701" spans="12:15" ht="15">
       <c r="L701" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13530,7 +13559,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="702" spans="12:15">
+    <row r="702" spans="12:15" ht="15">
       <c r="L702" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13548,7 +13577,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="703" spans="12:15">
+    <row r="703" spans="12:15" ht="15">
       <c r="L703" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13566,7 +13595,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="704" spans="12:15">
+    <row r="704" spans="12:15" ht="15">
       <c r="L704" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13584,7 +13613,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="705" spans="12:15">
+    <row r="705" spans="12:15" ht="15">
       <c r="L705" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13602,7 +13631,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="706" spans="12:15">
+    <row r="706" spans="12:15" ht="15">
       <c r="L706" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13620,7 +13649,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="707" spans="12:15">
+    <row r="707" spans="12:15" ht="15">
       <c r="L707" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13638,7 +13667,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="708" spans="12:15">
+    <row r="708" spans="12:15" ht="15">
       <c r="L708" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13656,7 +13685,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="709" spans="12:15">
+    <row r="709" spans="12:15" ht="15">
       <c r="L709" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13674,7 +13703,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="710" spans="12:15">
+    <row r="710" spans="12:15" ht="15">
       <c r="L710" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13692,7 +13721,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="711" spans="12:15">
+    <row r="711" spans="12:15" ht="15">
       <c r="L711" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13710,7 +13739,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="712" spans="12:15">
+    <row r="712" spans="12:15" ht="15">
       <c r="L712" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
@@ -13728,7 +13757,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="713" spans="12:15">
+    <row r="713" spans="12:15" ht="15">
       <c r="L713" s="5" t="e">
         <f t="shared" ref="L713:L776" si="24">IF(N713=0,"YES",N713)</f>
         <v>#VALUE!</v>
@@ -13746,7 +13775,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="714" spans="12:15">
+    <row r="714" spans="12:15" ht="15">
       <c r="L714" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -13764,7 +13793,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="715" spans="12:15">
+    <row r="715" spans="12:15" ht="15">
       <c r="L715" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -13782,7 +13811,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="716" spans="12:15">
+    <row r="716" spans="12:15" ht="15">
       <c r="L716" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -13800,7 +13829,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="717" spans="12:15">
+    <row r="717" spans="12:15" ht="15">
       <c r="L717" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -13818,7 +13847,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="718" spans="12:15">
+    <row r="718" spans="12:15" ht="15">
       <c r="L718" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -13836,7 +13865,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="719" spans="12:15">
+    <row r="719" spans="12:15" ht="15">
       <c r="L719" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -13854,7 +13883,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="720" spans="12:15">
+    <row r="720" spans="12:15" ht="15">
       <c r="L720" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -13872,7 +13901,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="721" spans="12:15">
+    <row r="721" spans="12:15" ht="15">
       <c r="L721" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -13890,7 +13919,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="722" spans="12:15">
+    <row r="722" spans="12:15" ht="15">
       <c r="L722" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -13908,7 +13937,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="723" spans="12:15">
+    <row r="723" spans="12:15" ht="15">
       <c r="L723" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -13926,7 +13955,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="724" spans="12:15">
+    <row r="724" spans="12:15" ht="15">
       <c r="L724" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -13944,7 +13973,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="725" spans="12:15">
+    <row r="725" spans="12:15" ht="15">
       <c r="L725" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -13962,7 +13991,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="726" spans="12:15">
+    <row r="726" spans="12:15" ht="15">
       <c r="L726" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -13980,7 +14009,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="727" spans="12:15">
+    <row r="727" spans="12:15" ht="15">
       <c r="L727" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -13998,7 +14027,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="728" spans="12:15">
+    <row r="728" spans="12:15" ht="15">
       <c r="L728" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14016,7 +14045,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="729" spans="12:15">
+    <row r="729" spans="12:15" ht="15">
       <c r="L729" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14034,7 +14063,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="730" spans="12:15">
+    <row r="730" spans="12:15" ht="15">
       <c r="L730" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14052,7 +14081,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="731" spans="12:15">
+    <row r="731" spans="12:15" ht="15">
       <c r="L731" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14070,7 +14099,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="732" spans="12:15">
+    <row r="732" spans="12:15" ht="15">
       <c r="L732" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14088,7 +14117,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="733" spans="12:15">
+    <row r="733" spans="12:15" ht="15">
       <c r="L733" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14106,7 +14135,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="734" spans="12:15">
+    <row r="734" spans="12:15" ht="15">
       <c r="L734" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14124,7 +14153,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="735" spans="12:15">
+    <row r="735" spans="12:15" ht="15">
       <c r="L735" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14142,7 +14171,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="736" spans="12:15">
+    <row r="736" spans="12:15" ht="15">
       <c r="L736" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14160,7 +14189,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="737" spans="12:15">
+    <row r="737" spans="12:15" ht="15">
       <c r="L737" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14178,7 +14207,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="738" spans="12:15">
+    <row r="738" spans="12:15" ht="15">
       <c r="L738" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14196,7 +14225,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="739" spans="12:15">
+    <row r="739" spans="12:15" ht="15">
       <c r="L739" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14214,7 +14243,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="740" spans="12:15">
+    <row r="740" spans="12:15" ht="15">
       <c r="L740" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14232,7 +14261,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="741" spans="12:15">
+    <row r="741" spans="12:15" ht="15">
       <c r="L741" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14250,7 +14279,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="742" spans="12:15">
+    <row r="742" spans="12:15" ht="15">
       <c r="L742" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14268,7 +14297,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="743" spans="12:15">
+    <row r="743" spans="12:15" ht="15">
       <c r="L743" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14286,7 +14315,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="744" spans="12:15">
+    <row r="744" spans="12:15" ht="15">
       <c r="L744" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14304,7 +14333,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="745" spans="12:15">
+    <row r="745" spans="12:15" ht="15">
       <c r="L745" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14322,7 +14351,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="746" spans="12:15">
+    <row r="746" spans="12:15" ht="15">
       <c r="L746" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14340,7 +14369,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="747" spans="12:15">
+    <row r="747" spans="12:15" ht="15">
       <c r="L747" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14358,7 +14387,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="748" spans="12:15">
+    <row r="748" spans="12:15" ht="15">
       <c r="L748" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14376,7 +14405,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="749" spans="12:15">
+    <row r="749" spans="12:15" ht="15">
       <c r="L749" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14394,7 +14423,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="750" spans="12:15">
+    <row r="750" spans="12:15" ht="15">
       <c r="L750" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14412,7 +14441,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="751" spans="12:15">
+    <row r="751" spans="12:15" ht="15">
       <c r="L751" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14430,7 +14459,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="752" spans="12:15">
+    <row r="752" spans="12:15" ht="15">
       <c r="L752" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14448,7 +14477,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="753" spans="12:15">
+    <row r="753" spans="12:15" ht="15">
       <c r="L753" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14466,7 +14495,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="754" spans="12:15">
+    <row r="754" spans="12:15" ht="15">
       <c r="L754" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14484,7 +14513,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="755" spans="12:15">
+    <row r="755" spans="12:15" ht="15">
       <c r="L755" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14502,7 +14531,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="756" spans="12:15">
+    <row r="756" spans="12:15" ht="15">
       <c r="L756" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14520,7 +14549,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="757" spans="12:15">
+    <row r="757" spans="12:15" ht="15">
       <c r="L757" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14538,7 +14567,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="758" spans="12:15">
+    <row r="758" spans="12:15" ht="15">
       <c r="L758" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14556,7 +14585,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="759" spans="12:15">
+    <row r="759" spans="12:15" ht="15">
       <c r="L759" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14574,7 +14603,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="760" spans="12:15">
+    <row r="760" spans="12:15" ht="15">
       <c r="L760" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14592,7 +14621,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="761" spans="12:15">
+    <row r="761" spans="12:15" ht="15">
       <c r="L761" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14610,7 +14639,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="762" spans="12:15">
+    <row r="762" spans="12:15" ht="15">
       <c r="L762" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14628,7 +14657,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="763" spans="12:15">
+    <row r="763" spans="12:15" ht="15">
       <c r="L763" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14646,7 +14675,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="764" spans="12:15">
+    <row r="764" spans="12:15" ht="15">
       <c r="L764" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14664,7 +14693,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="765" spans="12:15">
+    <row r="765" spans="12:15" ht="15">
       <c r="L765" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14682,7 +14711,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="766" spans="12:15">
+    <row r="766" spans="12:15" ht="15">
       <c r="L766" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14700,7 +14729,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="767" spans="12:15">
+    <row r="767" spans="12:15" ht="15">
       <c r="L767" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14718,7 +14747,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="768" spans="12:15">
+    <row r="768" spans="12:15" ht="15">
       <c r="L768" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14736,7 +14765,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="769" spans="12:15">
+    <row r="769" spans="12:15" ht="15">
       <c r="L769" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14754,7 +14783,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="770" spans="12:15">
+    <row r="770" spans="12:15" ht="15">
       <c r="L770" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14772,7 +14801,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="771" spans="12:15">
+    <row r="771" spans="12:15" ht="15">
       <c r="L771" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14790,7 +14819,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="772" spans="12:15">
+    <row r="772" spans="12:15" ht="15">
       <c r="L772" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14808,7 +14837,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="773" spans="12:15">
+    <row r="773" spans="12:15" ht="15">
       <c r="L773" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14826,7 +14855,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="774" spans="12:15">
+    <row r="774" spans="12:15" ht="15">
       <c r="L774" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14844,7 +14873,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="775" spans="12:15">
+    <row r="775" spans="12:15" ht="15">
       <c r="L775" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14862,7 +14891,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="776" spans="12:15">
+    <row r="776" spans="12:15" ht="15">
       <c r="L776" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
@@ -14880,7 +14909,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="777" spans="12:15">
+    <row r="777" spans="12:15" ht="15">
       <c r="L777" s="5" t="e">
         <f t="shared" ref="L777:L840" si="26">IF(N777=0,"YES",N777)</f>
         <v>#VALUE!</v>
@@ -14898,7 +14927,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="778" spans="12:15">
+    <row r="778" spans="12:15" ht="15">
       <c r="L778" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -14916,7 +14945,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="779" spans="12:15">
+    <row r="779" spans="12:15" ht="15">
       <c r="L779" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -14934,7 +14963,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="780" spans="12:15">
+    <row r="780" spans="12:15" ht="15">
       <c r="L780" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -14952,7 +14981,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="781" spans="12:15">
+    <row r="781" spans="12:15" ht="15">
       <c r="L781" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -14970,7 +14999,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="782" spans="12:15">
+    <row r="782" spans="12:15" ht="15">
       <c r="L782" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -14988,7 +15017,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="783" spans="12:15">
+    <row r="783" spans="12:15" ht="15">
       <c r="L783" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15006,7 +15035,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="784" spans="12:15">
+    <row r="784" spans="12:15" ht="15">
       <c r="L784" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15024,7 +15053,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="785" spans="12:15">
+    <row r="785" spans="12:15" ht="15">
       <c r="L785" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15042,7 +15071,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="786" spans="12:15">
+    <row r="786" spans="12:15" ht="15">
       <c r="L786" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15060,7 +15089,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="787" spans="12:15">
+    <row r="787" spans="12:15" ht="15">
       <c r="L787" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15078,7 +15107,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="788" spans="12:15">
+    <row r="788" spans="12:15" ht="15">
       <c r="L788" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15096,7 +15125,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="789" spans="12:15">
+    <row r="789" spans="12:15" ht="15">
       <c r="L789" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15114,7 +15143,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="790" spans="12:15">
+    <row r="790" spans="12:15" ht="15">
       <c r="L790" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15132,7 +15161,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="791" spans="12:15">
+    <row r="791" spans="12:15" ht="15">
       <c r="L791" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15150,7 +15179,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="792" spans="12:15">
+    <row r="792" spans="12:15" ht="15">
       <c r="L792" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15168,7 +15197,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="793" spans="12:15">
+    <row r="793" spans="12:15" ht="15">
       <c r="L793" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15186,7 +15215,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="794" spans="12:15">
+    <row r="794" spans="12:15" ht="15">
       <c r="L794" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15204,7 +15233,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="795" spans="12:15">
+    <row r="795" spans="12:15" ht="15">
       <c r="L795" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15222,7 +15251,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="796" spans="12:15">
+    <row r="796" spans="12:15" ht="15">
       <c r="L796" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15240,7 +15269,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="797" spans="12:15">
+    <row r="797" spans="12:15" ht="15">
       <c r="L797" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15258,7 +15287,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="798" spans="12:15">
+    <row r="798" spans="12:15" ht="15">
       <c r="L798" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15276,7 +15305,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="799" spans="12:15">
+    <row r="799" spans="12:15" ht="15">
       <c r="L799" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15294,7 +15323,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="800" spans="12:15">
+    <row r="800" spans="12:15" ht="15">
       <c r="L800" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15312,7 +15341,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="801" spans="12:15">
+    <row r="801" spans="12:15" ht="15">
       <c r="L801" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15330,7 +15359,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="802" spans="12:15">
+    <row r="802" spans="12:15" ht="15">
       <c r="L802" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15348,7 +15377,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="803" spans="12:15">
+    <row r="803" spans="12:15" ht="15">
       <c r="L803" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15366,7 +15395,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="804" spans="12:15">
+    <row r="804" spans="12:15" ht="15">
       <c r="L804" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15384,7 +15413,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="805" spans="12:15">
+    <row r="805" spans="12:15" ht="15">
       <c r="L805" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15402,7 +15431,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="806" spans="12:15">
+    <row r="806" spans="12:15" ht="15">
       <c r="L806" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15420,7 +15449,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="807" spans="12:15">
+    <row r="807" spans="12:15" ht="15">
       <c r="L807" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15438,7 +15467,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="808" spans="12:15">
+    <row r="808" spans="12:15" ht="15">
       <c r="L808" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15456,7 +15485,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="809" spans="12:15">
+    <row r="809" spans="12:15" ht="15">
       <c r="L809" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15474,7 +15503,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="810" spans="12:15">
+    <row r="810" spans="12:15" ht="15">
       <c r="L810" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15492,7 +15521,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="811" spans="12:15">
+    <row r="811" spans="12:15" ht="15">
       <c r="L811" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15510,7 +15539,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="812" spans="12:15">
+    <row r="812" spans="12:15" ht="15">
       <c r="L812" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15528,7 +15557,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="813" spans="12:15">
+    <row r="813" spans="12:15" ht="15">
       <c r="L813" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15546,7 +15575,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="814" spans="12:15">
+    <row r="814" spans="12:15" ht="15">
       <c r="L814" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15564,7 +15593,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="815" spans="12:15">
+    <row r="815" spans="12:15" ht="15">
       <c r="L815" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15582,7 +15611,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="816" spans="12:15">
+    <row r="816" spans="12:15" ht="15">
       <c r="L816" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15600,7 +15629,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="817" spans="12:15">
+    <row r="817" spans="12:15" ht="15">
       <c r="L817" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15618,7 +15647,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="818" spans="12:15">
+    <row r="818" spans="12:15" ht="15">
       <c r="L818" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15636,7 +15665,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="819" spans="12:15">
+    <row r="819" spans="12:15" ht="15">
       <c r="L819" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15654,7 +15683,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="820" spans="12:15">
+    <row r="820" spans="12:15" ht="15">
       <c r="L820" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15672,7 +15701,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="821" spans="12:15">
+    <row r="821" spans="12:15" ht="15">
       <c r="L821" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15690,7 +15719,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="822" spans="12:15">
+    <row r="822" spans="12:15" ht="15">
       <c r="L822" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15708,7 +15737,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="823" spans="12:15">
+    <row r="823" spans="12:15" ht="15">
       <c r="L823" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15726,7 +15755,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="824" spans="12:15">
+    <row r="824" spans="12:15" ht="15">
       <c r="L824" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15744,7 +15773,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="825" spans="12:15">
+    <row r="825" spans="12:15" ht="15">
       <c r="L825" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15762,7 +15791,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="826" spans="12:15">
+    <row r="826" spans="12:15" ht="15">
       <c r="L826" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15780,7 +15809,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="827" spans="12:15">
+    <row r="827" spans="12:15" ht="15">
       <c r="L827" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15798,7 +15827,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="828" spans="12:15">
+    <row r="828" spans="12:15" ht="15">
       <c r="L828" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15816,7 +15845,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="829" spans="12:15">
+    <row r="829" spans="12:15" ht="15">
       <c r="L829" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15834,7 +15863,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="830" spans="12:15">
+    <row r="830" spans="12:15" ht="15">
       <c r="L830" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15852,7 +15881,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="831" spans="12:15">
+    <row r="831" spans="12:15" ht="15">
       <c r="L831" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15870,7 +15899,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="832" spans="12:15">
+    <row r="832" spans="12:15" ht="15">
       <c r="L832" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15888,7 +15917,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="833" spans="12:15">
+    <row r="833" spans="12:15" ht="15">
       <c r="L833" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15906,7 +15935,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="834" spans="12:15">
+    <row r="834" spans="12:15" ht="15">
       <c r="L834" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15924,7 +15953,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="835" spans="12:15">
+    <row r="835" spans="12:15" ht="15">
       <c r="L835" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15942,7 +15971,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="836" spans="12:15">
+    <row r="836" spans="12:15" ht="15">
       <c r="L836" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15960,7 +15989,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="837" spans="12:15">
+    <row r="837" spans="12:15" ht="15">
       <c r="L837" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15978,7 +16007,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="838" spans="12:15">
+    <row r="838" spans="12:15" ht="15">
       <c r="L838" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -15996,7 +16025,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="839" spans="12:15">
+    <row r="839" spans="12:15" ht="15">
       <c r="L839" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -16014,7 +16043,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="840" spans="12:15">
+    <row r="840" spans="12:15" ht="15">
       <c r="L840" s="5" t="e">
         <f t="shared" si="26"/>
         <v>#VALUE!</v>
@@ -16032,7 +16061,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="841" spans="12:15">
+    <row r="841" spans="12:15" ht="15">
       <c r="L841" s="5" t="e">
         <f t="shared" ref="L841:L904" si="28">IF(N841=0,"YES",N841)</f>
         <v>#VALUE!</v>
@@ -16050,7 +16079,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="842" spans="12:15">
+    <row r="842" spans="12:15" ht="15">
       <c r="L842" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16068,7 +16097,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="843" spans="12:15">
+    <row r="843" spans="12:15" ht="15">
       <c r="L843" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16086,7 +16115,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="844" spans="12:15">
+    <row r="844" spans="12:15" ht="15">
       <c r="L844" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16104,7 +16133,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="845" spans="12:15">
+    <row r="845" spans="12:15" ht="15">
       <c r="L845" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16122,7 +16151,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="846" spans="12:15">
+    <row r="846" spans="12:15" ht="15">
       <c r="L846" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16140,7 +16169,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="847" spans="12:15">
+    <row r="847" spans="12:15" ht="15">
       <c r="L847" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16158,7 +16187,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="848" spans="12:15">
+    <row r="848" spans="12:15" ht="15">
       <c r="L848" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16176,7 +16205,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="849" spans="12:15">
+    <row r="849" spans="12:15" ht="15">
       <c r="L849" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16194,7 +16223,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="850" spans="12:15">
+    <row r="850" spans="12:15" ht="15">
       <c r="L850" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16212,7 +16241,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="851" spans="12:15">
+    <row r="851" spans="12:15" ht="15">
       <c r="L851" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16230,7 +16259,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="852" spans="12:15">
+    <row r="852" spans="12:15" ht="15">
       <c r="L852" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16248,7 +16277,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="853" spans="12:15">
+    <row r="853" spans="12:15" ht="15">
       <c r="L853" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16266,7 +16295,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="854" spans="12:15">
+    <row r="854" spans="12:15" ht="15">
       <c r="L854" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16284,7 +16313,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="855" spans="12:15">
+    <row r="855" spans="12:15" ht="15">
       <c r="L855" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16302,7 +16331,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="856" spans="12:15">
+    <row r="856" spans="12:15" ht="15">
       <c r="L856" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16320,7 +16349,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="857" spans="12:15">
+    <row r="857" spans="12:15" ht="15">
       <c r="L857" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16338,7 +16367,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="858" spans="12:15">
+    <row r="858" spans="12:15" ht="15">
       <c r="L858" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16356,7 +16385,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="859" spans="12:15">
+    <row r="859" spans="12:15" ht="15">
       <c r="L859" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16374,7 +16403,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="860" spans="12:15">
+    <row r="860" spans="12:15" ht="15">
       <c r="L860" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16392,7 +16421,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="861" spans="12:15">
+    <row r="861" spans="12:15" ht="15">
       <c r="L861" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16410,7 +16439,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="862" spans="12:15">
+    <row r="862" spans="12:15" ht="15">
       <c r="L862" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16428,7 +16457,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="863" spans="12:15">
+    <row r="863" spans="12:15" ht="15">
       <c r="L863" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16446,7 +16475,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="864" spans="12:15">
+    <row r="864" spans="12:15" ht="15">
       <c r="L864" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16464,7 +16493,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="865" spans="12:15">
+    <row r="865" spans="12:15" ht="15">
       <c r="L865" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16482,7 +16511,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="866" spans="12:15">
+    <row r="866" spans="12:15" ht="15">
       <c r="L866" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16500,7 +16529,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="867" spans="12:15">
+    <row r="867" spans="12:15" ht="15">
       <c r="L867" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16518,7 +16547,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="868" spans="12:15">
+    <row r="868" spans="12:15" ht="15">
       <c r="L868" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16536,7 +16565,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="869" spans="12:15">
+    <row r="869" spans="12:15" ht="15">
       <c r="L869" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16554,7 +16583,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="870" spans="12:15">
+    <row r="870" spans="12:15" ht="15">
       <c r="L870" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16572,7 +16601,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="871" spans="12:15">
+    <row r="871" spans="12:15" ht="15">
       <c r="L871" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16590,7 +16619,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="872" spans="12:15">
+    <row r="872" spans="12:15" ht="15">
       <c r="L872" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16608,7 +16637,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="873" spans="12:15">
+    <row r="873" spans="12:15" ht="15">
       <c r="L873" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16626,7 +16655,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="874" spans="12:15">
+    <row r="874" spans="12:15" ht="15">
       <c r="L874" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16644,7 +16673,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="875" spans="12:15">
+    <row r="875" spans="12:15" ht="15">
       <c r="L875" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16662,7 +16691,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="876" spans="12:15">
+    <row r="876" spans="12:15" ht="15">
       <c r="L876" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16680,7 +16709,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="877" spans="12:15">
+    <row r="877" spans="12:15" ht="15">
       <c r="L877" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16698,7 +16727,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="878" spans="12:15">
+    <row r="878" spans="12:15" ht="15">
       <c r="L878" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16716,7 +16745,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="879" spans="12:15">
+    <row r="879" spans="12:15" ht="15">
       <c r="L879" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16734,7 +16763,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="880" spans="12:15">
+    <row r="880" spans="12:15" ht="15">
       <c r="L880" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16752,7 +16781,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="881" spans="12:15">
+    <row r="881" spans="12:15" ht="15">
       <c r="L881" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16770,7 +16799,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="882" spans="12:15">
+    <row r="882" spans="12:15" ht="15">
       <c r="L882" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16788,7 +16817,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="883" spans="12:15">
+    <row r="883" spans="12:15" ht="15">
       <c r="L883" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16806,7 +16835,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="884" spans="12:15">
+    <row r="884" spans="12:15" ht="15">
       <c r="L884" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16824,7 +16853,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="885" spans="12:15">
+    <row r="885" spans="12:15" ht="15">
       <c r="L885" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16842,7 +16871,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="886" spans="12:15">
+    <row r="886" spans="12:15" ht="15">
       <c r="L886" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16860,7 +16889,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="887" spans="12:15">
+    <row r="887" spans="12:15" ht="15">
       <c r="L887" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16878,7 +16907,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="888" spans="12:15">
+    <row r="888" spans="12:15" ht="15">
       <c r="L888" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16896,7 +16925,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="889" spans="12:15">
+    <row r="889" spans="12:15" ht="15">
       <c r="L889" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16914,7 +16943,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="890" spans="12:15">
+    <row r="890" spans="12:15" ht="15">
       <c r="L890" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16932,7 +16961,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="891" spans="12:15">
+    <row r="891" spans="12:15" ht="15">
       <c r="L891" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16950,7 +16979,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="892" spans="12:15">
+    <row r="892" spans="12:15" ht="15">
       <c r="L892" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16968,7 +16997,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="893" spans="12:15">
+    <row r="893" spans="12:15" ht="15">
       <c r="L893" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -16986,7 +17015,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="894" spans="12:15">
+    <row r="894" spans="12:15" ht="15">
       <c r="L894" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -17004,7 +17033,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="895" spans="12:15">
+    <row r="895" spans="12:15" ht="15">
       <c r="L895" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -17022,7 +17051,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="896" spans="12:15">
+    <row r="896" spans="12:15" ht="15">
       <c r="L896" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -17040,7 +17069,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="897" spans="12:15">
+    <row r="897" spans="12:15" ht="15">
       <c r="L897" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -17058,7 +17087,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="898" spans="12:15">
+    <row r="898" spans="12:15" ht="15">
       <c r="L898" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -17076,7 +17105,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="899" spans="12:15">
+    <row r="899" spans="12:15" ht="15">
       <c r="L899" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -17094,7 +17123,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="900" spans="12:15">
+    <row r="900" spans="12:15" ht="15">
       <c r="L900" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -17112,7 +17141,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="901" spans="12:15">
+    <row r="901" spans="12:15" ht="15">
       <c r="L901" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -17130,7 +17159,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="902" spans="12:15">
+    <row r="902" spans="12:15" ht="15">
       <c r="L902" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -17148,7 +17177,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="903" spans="12:15">
+    <row r="903" spans="12:15" ht="15">
       <c r="L903" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -17166,7 +17195,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="904" spans="12:15">
+    <row r="904" spans="12:15" ht="15">
       <c r="L904" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
@@ -17184,7 +17213,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="905" spans="12:15">
+    <row r="905" spans="12:15" ht="15">
       <c r="L905" s="5" t="e">
         <f t="shared" ref="L905:L968" si="30">IF(N905=0,"YES",N905)</f>
         <v>#VALUE!</v>
@@ -17202,7 +17231,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="906" spans="12:15">
+    <row r="906" spans="12:15" ht="15">
       <c r="L906" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17220,7 +17249,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="907" spans="12:15">
+    <row r="907" spans="12:15" ht="15">
       <c r="L907" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17238,7 +17267,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="908" spans="12:15">
+    <row r="908" spans="12:15" ht="15">
       <c r="L908" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17256,7 +17285,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="909" spans="12:15">
+    <row r="909" spans="12:15" ht="15">
       <c r="L909" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17274,7 +17303,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="910" spans="12:15">
+    <row r="910" spans="12:15" ht="15">
       <c r="L910" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17292,7 +17321,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="911" spans="12:15">
+    <row r="911" spans="12:15" ht="15">
       <c r="L911" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17310,7 +17339,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="912" spans="12:15">
+    <row r="912" spans="12:15" ht="15">
       <c r="L912" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17328,7 +17357,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="913" spans="12:15">
+    <row r="913" spans="12:15" ht="15">
       <c r="L913" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17346,7 +17375,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="914" spans="12:15">
+    <row r="914" spans="12:15" ht="15">
       <c r="L914" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17364,7 +17393,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="915" spans="12:15">
+    <row r="915" spans="12:15" ht="15">
       <c r="L915" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17382,7 +17411,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="916" spans="12:15">
+    <row r="916" spans="12:15" ht="15">
       <c r="L916" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17400,7 +17429,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="917" spans="12:15">
+    <row r="917" spans="12:15" ht="15">
       <c r="L917" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17418,7 +17447,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="918" spans="12:15">
+    <row r="918" spans="12:15" ht="15">
       <c r="L918" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17436,7 +17465,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="919" spans="12:15">
+    <row r="919" spans="12:15" ht="15">
       <c r="L919" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17454,7 +17483,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="920" spans="12:15">
+    <row r="920" spans="12:15" ht="15">
       <c r="L920" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17472,7 +17501,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="921" spans="12:15">
+    <row r="921" spans="12:15" ht="15">
       <c r="L921" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17490,7 +17519,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="922" spans="12:15">
+    <row r="922" spans="12:15" ht="15">
       <c r="L922" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17508,7 +17537,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="923" spans="12:15">
+    <row r="923" spans="12:15" ht="15">
       <c r="L923" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17526,7 +17555,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="924" spans="12:15">
+    <row r="924" spans="12:15" ht="15">
       <c r="L924" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17544,7 +17573,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="925" spans="12:15">
+    <row r="925" spans="12:15" ht="15">
       <c r="L925" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17562,7 +17591,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="926" spans="12:15">
+    <row r="926" spans="12:15" ht="15">
       <c r="L926" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17580,7 +17609,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="927" spans="12:15">
+    <row r="927" spans="12:15" ht="15">
       <c r="L927" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17598,7 +17627,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="928" spans="12:15">
+    <row r="928" spans="12:15" ht="15">
       <c r="L928" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17616,7 +17645,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="929" spans="12:15">
+    <row r="929" spans="12:15" ht="15">
       <c r="L929" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17634,7 +17663,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="930" spans="12:15">
+    <row r="930" spans="12:15" ht="15">
       <c r="L930" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17652,7 +17681,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="931" spans="12:15">
+    <row r="931" spans="12:15" ht="15">
       <c r="L931" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17670,7 +17699,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="932" spans="12:15">
+    <row r="932" spans="12:15" ht="15">
       <c r="L932" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17688,7 +17717,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="933" spans="12:15">
+    <row r="933" spans="12:15" ht="15">
       <c r="L933" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17706,7 +17735,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="934" spans="12:15">
+    <row r="934" spans="12:15" ht="15">
       <c r="L934" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17724,7 +17753,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="935" spans="12:15">
+    <row r="935" spans="12:15" ht="15">
       <c r="L935" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17742,7 +17771,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="936" spans="12:15">
+    <row r="936" spans="12:15" ht="15">
       <c r="L936" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17760,7 +17789,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="937" spans="12:15">
+    <row r="937" spans="12:15" ht="15">
       <c r="L937" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17778,7 +17807,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="938" spans="12:15">
+    <row r="938" spans="12:15" ht="15">
       <c r="L938" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17796,7 +17825,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="939" spans="12:15">
+    <row r="939" spans="12:15" ht="15">
       <c r="L939" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17814,7 +17843,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="940" spans="12:15">
+    <row r="940" spans="12:15" ht="15">
       <c r="L940" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17832,7 +17861,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="941" spans="12:15">
+    <row r="941" spans="12:15" ht="15">
       <c r="L941" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17850,7 +17879,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="942" spans="12:15">
+    <row r="942" spans="12:15" ht="15">
       <c r="L942" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17868,7 +17897,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="943" spans="12:15">
+    <row r="943" spans="12:15" ht="15">
       <c r="L943" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17886,7 +17915,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="944" spans="12:15">
+    <row r="944" spans="12:15" ht="15">
       <c r="L944" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17904,7 +17933,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="945" spans="12:15">
+    <row r="945" spans="12:15" ht="15">
       <c r="L945" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17922,7 +17951,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="946" spans="12:15">
+    <row r="946" spans="12:15" ht="15">
       <c r="L946" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17940,7 +17969,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="947" spans="12:15">
+    <row r="947" spans="12:15" ht="15">
       <c r="L947" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17958,7 +17987,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="948" spans="12:15">
+    <row r="948" spans="12:15" ht="15">
       <c r="L948" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17976,7 +18005,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="949" spans="12:15">
+    <row r="949" spans="12:15" ht="15">
       <c r="L949" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -17994,7 +18023,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="950" spans="12:15">
+    <row r="950" spans="12:15" ht="15">
       <c r="L950" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18012,7 +18041,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="951" spans="12:15">
+    <row r="951" spans="12:15" ht="15">
       <c r="L951" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18030,7 +18059,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="952" spans="12:15">
+    <row r="952" spans="12:15" ht="15">
       <c r="L952" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18048,7 +18077,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="953" spans="12:15">
+    <row r="953" spans="12:15" ht="15">
       <c r="L953" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18066,7 +18095,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="954" spans="12:15">
+    <row r="954" spans="12:15" ht="15">
       <c r="L954" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18084,7 +18113,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="955" spans="12:15">
+    <row r="955" spans="12:15" ht="15">
       <c r="L955" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18102,7 +18131,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="956" spans="12:15">
+    <row r="956" spans="12:15" ht="15">
       <c r="L956" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18120,7 +18149,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="957" spans="12:15">
+    <row r="957" spans="12:15" ht="15">
       <c r="L957" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18138,7 +18167,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="958" spans="12:15">
+    <row r="958" spans="12:15" ht="15">
       <c r="L958" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18156,7 +18185,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="959" spans="12:15">
+    <row r="959" spans="12:15" ht="15">
       <c r="L959" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18174,7 +18203,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="960" spans="12:15">
+    <row r="960" spans="12:15" ht="15">
       <c r="L960" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18192,7 +18221,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="961" spans="12:15">
+    <row r="961" spans="12:15" ht="15">
       <c r="L961" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18210,7 +18239,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="962" spans="12:15">
+    <row r="962" spans="12:15" ht="15">
       <c r="L962" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18228,7 +18257,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="963" spans="12:15">
+    <row r="963" spans="12:15" ht="15">
       <c r="L963" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18246,7 +18275,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="964" spans="12:15">
+    <row r="964" spans="12:15" ht="15">
       <c r="L964" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18264,7 +18293,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="965" spans="12:15">
+    <row r="965" spans="12:15" ht="15">
       <c r="L965" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18282,7 +18311,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="966" spans="12:15">
+    <row r="966" spans="12:15" ht="15">
       <c r="L966" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18300,7 +18329,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="967" spans="12:15">
+    <row r="967" spans="12:15" ht="15">
       <c r="L967" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18318,7 +18347,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="968" spans="12:15">
+    <row r="968" spans="12:15" ht="15">
       <c r="L968" s="5" t="e">
         <f t="shared" si="30"/>
         <v>#VALUE!</v>
@@ -18336,7 +18365,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="969" spans="12:15">
+    <row r="969" spans="12:15" ht="15">
       <c r="L969" s="5" t="e">
         <f t="shared" ref="L969:L999" si="32">IF(N969=0,"YES",N969)</f>
         <v>#VALUE!</v>
@@ -18354,7 +18383,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="970" spans="12:15">
+    <row r="970" spans="12:15" ht="15">
       <c r="L970" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18372,7 +18401,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="971" spans="12:15">
+    <row r="971" spans="12:15" ht="15">
       <c r="L971" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18390,7 +18419,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="972" spans="12:15">
+    <row r="972" spans="12:15" ht="15">
       <c r="L972" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18408,7 +18437,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="973" spans="12:15">
+    <row r="973" spans="12:15" ht="15">
       <c r="L973" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18426,7 +18455,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="974" spans="12:15">
+    <row r="974" spans="12:15" ht="15">
       <c r="L974" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18444,7 +18473,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="975" spans="12:15">
+    <row r="975" spans="12:15" ht="15">
       <c r="L975" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18462,7 +18491,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="976" spans="12:15">
+    <row r="976" spans="12:15" ht="15">
       <c r="L976" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18480,7 +18509,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="977" spans="12:15">
+    <row r="977" spans="12:15" ht="15">
       <c r="L977" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18498,7 +18527,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="978" spans="12:15">
+    <row r="978" spans="12:15" ht="15">
       <c r="L978" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18516,7 +18545,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="979" spans="12:15">
+    <row r="979" spans="12:15" ht="15">
       <c r="L979" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18534,7 +18563,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="980" spans="12:15">
+    <row r="980" spans="12:15" ht="15">
       <c r="L980" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18552,7 +18581,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="981" spans="12:15">
+    <row r="981" spans="12:15" ht="15">
       <c r="L981" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18570,7 +18599,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="982" spans="12:15">
+    <row r="982" spans="12:15" ht="15">
       <c r="L982" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18588,7 +18617,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="983" spans="12:15">
+    <row r="983" spans="12:15" ht="15">
       <c r="L983" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18606,7 +18635,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="984" spans="12:15">
+    <row r="984" spans="12:15" ht="15">
       <c r="L984" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18624,7 +18653,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="985" spans="12:15">
+    <row r="985" spans="12:15" ht="15">
       <c r="L985" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18642,7 +18671,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="986" spans="12:15">
+    <row r="986" spans="12:15" ht="15">
       <c r="L986" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18660,7 +18689,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="987" spans="12:15">
+    <row r="987" spans="12:15" ht="15">
       <c r="L987" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18678,7 +18707,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="988" spans="12:15">
+    <row r="988" spans="12:15" ht="15">
       <c r="L988" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18696,7 +18725,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="989" spans="12:15">
+    <row r="989" spans="12:15" ht="15">
       <c r="L989" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18714,7 +18743,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="990" spans="12:15">
+    <row r="990" spans="12:15" ht="15">
       <c r="L990" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18732,7 +18761,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="991" spans="12:15">
+    <row r="991" spans="12:15" ht="15">
       <c r="L991" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18750,7 +18779,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="992" spans="12:15">
+    <row r="992" spans="12:15" ht="15">
       <c r="L992" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18768,7 +18797,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="993" spans="12:15">
+    <row r="993" spans="12:15" ht="15">
       <c r="L993" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18786,7 +18815,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="994" spans="12:15">
+    <row r="994" spans="12:15" ht="15">
       <c r="L994" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18804,7 +18833,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="995" spans="12:15">
+    <row r="995" spans="12:15" ht="15">
       <c r="L995" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18822,7 +18851,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="996" spans="12:15">
+    <row r="996" spans="12:15" ht="15">
       <c r="L996" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18840,7 +18869,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="997" spans="12:15">
+    <row r="997" spans="12:15" ht="15">
       <c r="L997" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18858,7 +18887,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="998" spans="12:15">
+    <row r="998" spans="12:15" ht="15">
       <c r="L998" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18876,7 +18905,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="999" spans="12:15">
+    <row r="999" spans="12:15" ht="15">
       <c r="L999" s="5" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -18894,6 +18923,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
+    <row r="1000" spans="12:15" ht="15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:G2"/>
@@ -18925,17 +18955,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -18943,7 +18973,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>43406</v>
@@ -18954,7 +18984,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
         <v>43141</v>
@@ -18965,7 +18995,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
         <v>43142</v>
@@ -18974,12 +19004,12 @@
         <v>43142</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
         <v>43167</v>
@@ -19001,7 +19031,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <v>43232</v>
@@ -19022,7 +19052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F85FE0-B9A3-4B47-889B-8AE7F7B36CC2}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{C4012E2D-D7D6-5999-A075-89C88A1B21AC}">
+    <sheetView workbookViewId="0" xr3:uid="{C4012E2D-D7D6-5999-A075-89C88A1B21AC}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -19036,7 +19066,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21">
       <c r="A1" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -19047,22 +19077,22 @@
     </row>
     <row r="2" spans="1:7" ht="15">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -19079,7 +19109,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -19096,7 +19126,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -19113,7 +19143,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -19127,7 +19157,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -19141,7 +19171,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -19155,7 +19185,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -19171,7 +19201,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1">
         <v>43458</v>
@@ -19180,12 +19210,12 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>43465</v>
@@ -19194,12 +19224,12 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1">
         <v>43107</v>
@@ -19208,12 +19238,12 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1">
         <v>43114</v>
@@ -19222,12 +19252,12 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1">
         <v>43121</v>
@@ -19348,7 +19378,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1">
         <v>43198</v>
@@ -19359,7 +19389,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1">
         <v>43205</v>
@@ -19370,7 +19400,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1">
         <v>43212</v>

--- a/admin/Schedule of Activity.xlsx
+++ b/admin/Schedule of Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b94ccae29788f3bc/Bristol/Final Year Project/w5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C21C6F58-1014-4864-8FB2-26715C64A931}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83333B75-0E7F-478E-A0AE-387AA93C5A21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" xr2:uid="{BC5E3FEA-07E1-42A4-AA4A-5DAF8469F5C2}"/>
   </bookViews>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41896FE7-47FE-4192-B182-9F96C4005BA7}">
   <dimension ref="A1:P1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0" xr3:uid="{D07F2CD1-9907-54B6-B695-3108A5814274}">
-      <selection activeCell="J16" sqref="J8:Q16"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0" xr3:uid="{D07F2CD1-9907-54B6-B695-3108A5814274}">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1112,15 +1112,19 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1">
+        <v>43413</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43413</v>
+      </c>
       <c r="H11" s="7" t="str">
         <f>IF(NOT(Table3[End_]=""),L11,"")</f>
-        <v/>
+        <v>YES</v>
       </c>
       <c r="I11" s="7" t="str">
         <f>IF(NOT(Table3[End_]=""),M11,"")</f>
-        <v/>
+        <v>YES</v>
       </c>
       <c r="L11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1155,15 +1159,19 @@
       <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1">
+        <v>43413</v>
+      </c>
+      <c r="G12" s="1">
+        <v>43413</v>
+      </c>
       <c r="H12" s="7" t="str">
         <f>IF(NOT(Table3[End_]=""),L12,"")</f>
-        <v/>
+        <v>YES</v>
       </c>
       <c r="I12" s="7" t="str">
         <f>IF(NOT(Table3[End_]=""),M12,"")</f>
-        <v/>
+        <v>YES</v>
       </c>
       <c r="L12" s="5" t="str">
         <f t="shared" si="0"/>
